--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A528BA27-983C-4131-A3E5-771D1847243B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C86B402-3C76-4615-8DBC-34DEFA2055F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$G$1802</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$G$1801</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="2006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="2018">
   <si>
     <t>Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</t>
   </si>
@@ -5043,9 +5043,6 @@
     <t>Liêm Trinh, Thất Sát đồng cung tại cung Tật Ách</t>
   </si>
   <si>
-    <t xml:space="preserve">Mắt rất kém, mắc tai nạn xe cộ hay đao thương. </t>
-  </si>
-  <si>
     <t>Chết bất đắc kỳ tử, hoặc vì mắc tai nạn, hoặc  vì ngộ độc.</t>
   </si>
   <si>
@@ -5068,9 +5065,6 @@
   </si>
   <si>
     <t>Vũ Khúc, Thiên Tướng đồng cung tại Tật Ách</t>
-  </si>
-  <si>
-    <t>Có ám tật.</t>
   </si>
   <si>
     <t>Tham Lang, Văn Xương, Văn Khúc đồng cung tại Tật Ách</t>
@@ -5128,9 +5122,6 @@
     <t>Thiên Cơ, Cự Môn đồng cung tại Tật Ách</t>
   </si>
   <si>
-    <t xml:space="preserve">Bệnh khi huyết </t>
-  </si>
-  <si>
     <t>Bệnh ngoài da hay bệnh tê thấp.</t>
   </si>
   <si>
@@ -5307,9 +5298,6 @@
     <t>Vũ Khúc, Phá Quân đồng cung tại Tật Ách</t>
   </si>
   <si>
-    <t>Mắt kém.</t>
-  </si>
-  <si>
     <t>Liêm Trinh, Phá Quân đồng cung tại Tật Ách</t>
   </si>
   <si>
@@ -6038,9 +6026,6 @@
     <t>Người hay có bệnh mất ngủ, căng thẳng tinh thần, lo âu, tăng huyết áp, trầm cảm.</t>
   </si>
   <si>
-    <t>Mắt đau, hoặc bị vật kim khí sắc nhọn chọc vào mắt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mắc tai nạn sông nước, hay mang bệnh phong tình. </t>
   </si>
   <si>
@@ -6051,6 +6036,57 @@
   </si>
   <si>
     <t>Bệnh về thể chất, cụ thể là về máu huyết, gân cốt như hoại huyết, áp huyết cao, đau gân, đau tim, nhức xương, tê thấp, dễ liên quan đến việc sinh đẻ, kinh nguyệt.</t>
+  </si>
+  <si>
+    <t>Chủ về bị thương có sẹo, bị phẫu thuật, hoặc đau ruột non (tiểu trường). Cũng chủ về ám tật, bệnh kín, nhất là  nên đề phòng bệnh đường sinh dục.</t>
+  </si>
+  <si>
+    <t>Có khuynh hướng bị phẫu thuật hoặc tổn thương. Vũ Khúc đồng độ với Hoả Tinh, Linh Tinh cũng chủ về bị thương do kim loại gây nên.</t>
+  </si>
+  <si>
+    <t>Mắt kém. Chủ về bệnh răng, nhất là nha chu.</t>
+  </si>
+  <si>
+    <t>Tham Hỏa hội chiếu tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Chủ về viêm gan, đầu mũi phát đỏ.</t>
+  </si>
+  <si>
+    <t>Dự báo các bệnh về nội thương, các bệnh hệ tiêu hóa, như dạ dày, đại tràng.</t>
+  </si>
+  <si>
+    <t>Mắt rất kém, mắc tai nạn xe cộ hay đao thương. thông thường chủ về bệnh đường hô hấp</t>
+  </si>
+  <si>
+    <t>Dự báo các bệnh về ngoại thương, các tai họa sát phạt mau chóng.</t>
+  </si>
+  <si>
+    <t>Tử Vi và Phá Quân đồng cung tại Tật Ách</t>
+  </si>
+  <si>
+    <t>Có khuynh hướng mắc bệnh thận căn nguyên là vì sắc dục, chủ về bệnh thận hư tổn. Vì vậy chủ về bệnh kín ở đường sinh dục.</t>
+  </si>
+  <si>
+    <t>Chủ về các chứng nhược, hoặc ám tật, bệnh kín đường sinh dục</t>
+  </si>
+  <si>
+    <t>Cứu giải khá nhiều bệnh tật, tai ương. Chủ về bệnh đường tiêu hoá dạ dày, thực quản, đại tràng.</t>
+  </si>
+  <si>
+    <t>Chủ về bệnh thận hư căn nguyên do quá phóng đãng. Chủ về bệnh ở cơ quan sinh dục.</t>
+  </si>
+  <si>
+    <t>Rất dễ biến thành rối loạn nội tiết, như bướu cổ.</t>
+  </si>
+  <si>
+    <t>Chủ về hệ tiêu hoá, bị can mộc khắc, thành can vị bất hoà, biểu hiện là đau bụng, khó chịu trong ngực, bụng trướng.</t>
+  </si>
+  <si>
+    <t>Bệnh khi huyết, chủ về hệ tiêu hoá, bị can mộc khắc, thành can vị bất hoà, biểu hiện là đau bụng, khó chịu trong ngực, bụng trướng.</t>
+  </si>
+  <si>
+    <t>Chủ về thấp khí, có thể phát triển thành thuỷ thũng, bụng trướng</t>
   </si>
 </sst>
 </file>
@@ -6385,10 +6421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G1803"/>
+  <dimension ref="A2:G1802"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1778" workbookViewId="0">
-      <selection activeCell="C1790" sqref="C1790"/>
+    <sheetView tabSelected="1" topLeftCell="A1779" workbookViewId="0">
+      <selection activeCell="C1793" sqref="C1793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6403,7 +6439,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6411,7 +6447,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6419,7 +6455,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6427,7 +6463,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6435,7 +6471,7 @@
         <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6443,7 +6479,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6614,7 +6650,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -6675,7 +6711,7 @@
         <v>72</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7843,7 +7879,7 @@
         <v>218</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -7851,7 +7887,7 @@
         <v>219</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8139,7 +8175,7 @@
         <v>255</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -9014,7 +9050,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>360</v>
       </c>
@@ -9046,7 +9082,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>364</v>
       </c>
@@ -9251,7 +9287,7 @@
         <v>389</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11219,7 +11255,7 @@
         <v>635</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -11395,7 +11431,7 @@
         <v>656</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="627" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -13163,7 +13199,7 @@
         <v>877</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>2005</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
@@ -13819,7 +13855,7 @@
         <v>959</v>
       </c>
       <c r="B929" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.25">
@@ -15027,7 +15063,7 @@
         <v>1097</v>
       </c>
       <c r="B1080" s="1" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.25">
@@ -15491,7 +15527,7 @@
         <v>1155</v>
       </c>
       <c r="B1138" s="1" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15614,7 +15650,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="1154" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1154" s="1" t="s">
         <v>1171</v>
       </c>
@@ -15838,7 +15874,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="1182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1182" s="1" t="s">
         <v>1199</v>
       </c>
@@ -15950,7 +15986,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="1196" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1196" s="1" t="s">
         <v>1213</v>
       </c>
@@ -16006,7 +16042,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="1203" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1203" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16611,7 +16647,7 @@
         <v>20</v>
       </c>
       <c r="B1278" s="1" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.25">
@@ -16664,10 +16700,10 @@
     </row>
     <row r="1285" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1285" s="1" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B1285" s="1" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16675,7 +16711,7 @@
         <v>27</v>
       </c>
       <c r="B1286" s="1" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1287" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -16683,7 +16719,7 @@
         <v>28</v>
       </c>
       <c r="B1287" s="1" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.25">
@@ -16691,7 +16727,7 @@
         <v>29</v>
       </c>
       <c r="B1288" s="1" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1289" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -16699,7 +16735,7 @@
         <v>30</v>
       </c>
       <c r="B1289" s="1" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.25">
@@ -16779,7 +16815,7 @@
         <v>1296</v>
       </c>
       <c r="B1299" s="1" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1300" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -16787,7 +16823,7 @@
         <v>1297</v>
       </c>
       <c r="B1300" s="1" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1301" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -16795,7 +16831,7 @@
         <v>1298</v>
       </c>
       <c r="B1301" s="1" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1302" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -16803,7 +16839,7 @@
         <v>1299</v>
       </c>
       <c r="B1302" s="1" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1303" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -16811,7 +16847,7 @@
         <v>1300</v>
       </c>
       <c r="B1303" s="1" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
@@ -16819,7 +16855,7 @@
         <v>1301</v>
       </c>
       <c r="B1304" s="1" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1305" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -16827,7 +16863,7 @@
         <v>1302</v>
       </c>
       <c r="B1305" s="1" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1306" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -16835,7 +16871,7 @@
         <v>1303</v>
       </c>
       <c r="B1306" s="1" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1307" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -16843,7 +16879,7 @@
         <v>1304</v>
       </c>
       <c r="B1307" s="1" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1308" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -16851,7 +16887,7 @@
         <v>1305</v>
       </c>
       <c r="B1308" s="1" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1309" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -16859,7 +16895,7 @@
         <v>1306</v>
       </c>
       <c r="B1309" s="1" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1310" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -16867,13 +16903,13 @@
         <v>1307</v>
       </c>
       <c r="B1310" s="1" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="C1310" s="1" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="D1310" s="1" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1311" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -16881,7 +16917,7 @@
         <v>1308</v>
       </c>
       <c r="B1311" s="1" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1312" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -16889,7 +16925,7 @@
         <v>1309</v>
       </c>
       <c r="B1312" s="1" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1313" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -16897,7 +16933,7 @@
         <v>1310</v>
       </c>
       <c r="B1313" s="1" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1314" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16905,7 +16941,7 @@
         <v>1311</v>
       </c>
       <c r="B1314" s="1" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16913,15 +16949,15 @@
         <v>1312</v>
       </c>
       <c r="B1315" s="1" t="s">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="1316" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1316" s="1" t="s">
         <v>1313</v>
       </c>
       <c r="B1316" s="1" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.25">
@@ -16929,7 +16965,7 @@
         <v>1314</v>
       </c>
       <c r="B1317" s="1" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1318" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16937,7 +16973,7 @@
         <v>1315</v>
       </c>
       <c r="B1318" s="1" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1319" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16945,7 +16981,7 @@
         <v>1316</v>
       </c>
       <c r="B1319" s="1" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1320" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16953,7 +16989,7 @@
         <v>1317</v>
       </c>
       <c r="B1320" s="1" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1321" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -16961,7 +16997,7 @@
         <v>1318</v>
       </c>
       <c r="B1321" s="1" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1322" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16969,7 +17005,7 @@
         <v>1319</v>
       </c>
       <c r="B1322" s="1" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16977,15 +17013,15 @@
         <v>1320</v>
       </c>
       <c r="B1323" s="1" t="s">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A1324" s="1" t="s">
         <v>1321</v>
       </c>
       <c r="B1324" s="1" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1325" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -16993,7 +17029,7 @@
         <v>1322</v>
       </c>
       <c r="B1325" s="1" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1326" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -17001,15 +17037,15 @@
         <v>1323</v>
       </c>
       <c r="B1326" s="1" t="s">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A1327" s="1" t="s">
         <v>1324</v>
       </c>
       <c r="B1327" s="1" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1328" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -17017,7 +17053,7 @@
         <v>1325</v>
       </c>
       <c r="B1328" s="1" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1329" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -17025,7 +17061,7 @@
         <v>1326</v>
       </c>
       <c r="B1329" s="1" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1330" spans="1:3" x14ac:dyDescent="0.25">
@@ -17033,7 +17069,7 @@
         <v>1327</v>
       </c>
       <c r="B1330" s="1" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1331" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -17041,7 +17077,7 @@
         <v>1328</v>
       </c>
       <c r="B1331" s="1" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1332" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -17049,7 +17085,7 @@
         <v>1329</v>
       </c>
       <c r="B1332" s="1" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1333" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -17057,7 +17093,7 @@
         <v>1330</v>
       </c>
       <c r="B1333" s="1" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1334" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -17065,18 +17101,18 @@
         <v>1331</v>
       </c>
       <c r="B1334" s="1" t="s">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1335" s="1" t="s">
         <v>1332</v>
       </c>
       <c r="B1335" s="1" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="C1335" s="1" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1336" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -17084,7 +17120,7 @@
         <v>1334</v>
       </c>
       <c r="B1336" s="1" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1337" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -17092,7 +17128,7 @@
         <v>1333</v>
       </c>
       <c r="B1337" s="1" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1338" spans="1:3" x14ac:dyDescent="0.25">
@@ -17100,7 +17136,7 @@
         <v>1335</v>
       </c>
       <c r="B1338" s="1" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1339" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -17108,7 +17144,7 @@
         <v>1336</v>
       </c>
       <c r="B1339" s="1" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1340" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -17116,7 +17152,7 @@
         <v>1337</v>
       </c>
       <c r="B1340" s="1" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1341" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -17124,7 +17160,7 @@
         <v>1338</v>
       </c>
       <c r="B1341" s="1" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1342" spans="1:3" x14ac:dyDescent="0.25">
@@ -17132,7 +17168,7 @@
         <v>1339</v>
       </c>
       <c r="B1342" s="1" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1343" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -17140,7 +17176,7 @@
         <v>1340</v>
       </c>
       <c r="B1343" s="1" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1344" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -17148,7 +17184,7 @@
         <v>1341</v>
       </c>
       <c r="B1344" s="1" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1345" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17156,7 +17192,7 @@
         <v>1387</v>
       </c>
       <c r="B1345" s="1" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1346" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17164,7 +17200,7 @@
         <v>1388</v>
       </c>
       <c r="B1346" s="1" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1347" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17172,7 +17208,7 @@
         <v>1344</v>
       </c>
       <c r="B1347" s="1" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1348" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -17180,7 +17216,7 @@
         <v>1343</v>
       </c>
       <c r="B1348" s="1" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1349" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17188,7 +17224,7 @@
         <v>1389</v>
       </c>
       <c r="B1349" s="1" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1350" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -17196,7 +17232,7 @@
         <v>1390</v>
       </c>
       <c r="B1350" s="1" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1351" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -17204,7 +17240,7 @@
         <v>1391</v>
       </c>
       <c r="B1351" s="1" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1352" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17212,7 +17248,7 @@
         <v>1392</v>
       </c>
       <c r="B1352" s="1" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1353" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17220,7 +17256,7 @@
         <v>1393</v>
       </c>
       <c r="B1353" s="1" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.25">
@@ -17228,7 +17264,7 @@
         <v>1394</v>
       </c>
       <c r="B1354" s="1" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1355" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17236,7 +17272,7 @@
         <v>1342</v>
       </c>
       <c r="B1355" s="1" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1356" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17244,7 +17280,7 @@
         <v>1395</v>
       </c>
       <c r="B1356" s="1" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.25">
@@ -17356,7 +17392,7 @@
         <v>1358</v>
       </c>
       <c r="B1370" s="1" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.25">
@@ -17364,7 +17400,7 @@
         <v>1359</v>
       </c>
       <c r="B1371" s="1" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1372" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17372,7 +17408,7 @@
         <v>1360</v>
       </c>
       <c r="B1372" s="1" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1373" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17380,7 +17416,7 @@
         <v>1361</v>
       </c>
       <c r="B1373" s="1" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.25">
@@ -17388,7 +17424,7 @@
         <v>1362</v>
       </c>
       <c r="B1374" s="1" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1375" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17396,7 +17432,7 @@
         <v>1363</v>
       </c>
       <c r="B1375" s="1" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1376" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17404,7 +17440,7 @@
         <v>1364</v>
       </c>
       <c r="B1376" s="1" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.25">
@@ -17412,7 +17448,7 @@
         <v>1365</v>
       </c>
       <c r="B1377" s="1" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.25">
@@ -17420,7 +17456,7 @@
         <v>1366</v>
       </c>
       <c r="B1378" s="1" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.25">
@@ -17428,7 +17464,7 @@
         <v>1367</v>
       </c>
       <c r="B1379" s="1" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.25">
@@ -17612,7 +17648,7 @@
         <v>1399</v>
       </c>
       <c r="B1402" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1403" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17620,7 +17656,7 @@
         <v>1400</v>
       </c>
       <c r="B1403" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.25">
@@ -17639,1641 +17675,1641 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="1406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1406" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1406" s="1" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B1406" s="1" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1407" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1407" s="1" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B1407" s="1" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="1408" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1408" s="1" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="B1408" s="1" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="1409" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1409" s="1" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="B1409" s="1" t="s">
-        <v>2001</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1410" s="1" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="B1410" s="1" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="1411" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1411" s="1" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="B1411" s="1" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="1412" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1412" s="1" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B1412" s="1" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1413" s="1" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="B1413" s="1" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="1414" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1414" s="1" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="B1414" s="1" t="s">
-        <v>1411</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1415" s="1" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B1415" s="1" t="s">
-        <v>1696</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1416" s="1" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="B1416" s="1" t="s">
-        <v>2002</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1417" s="1" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="B1417" s="1" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="1418" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1418" s="1" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="B1418" s="1" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1419" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1419" s="1" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="B1419" s="1" t="s">
-        <v>2004</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1420" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1420" s="1" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="B1420" s="1" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1421" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1421" s="1" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="B1421" s="1" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1422" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1422" s="1" t="s">
-        <v>1419</v>
+        <v>1843</v>
       </c>
       <c r="B1422" s="1" t="s">
-        <v>1419</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1423" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1423" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B1423" s="1" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="1424" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1424" s="1" t="s">
-        <v>1847</v>
+        <v>1422</v>
       </c>
       <c r="B1424" s="1" t="s">
-        <v>1847</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1425" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1425" s="1" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="B1425" s="1" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1426" s="1" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="B1426" s="1" t="s">
-        <v>1422</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1427" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1427" s="1" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="B1427" s="1" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="1428" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1428" s="1" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="B1428" s="1" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="1429" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1429" s="1" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="B1429" s="1" t="s">
-        <v>1846</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1430" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1430" s="1" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="B1430" s="1" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="1431" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1431" s="1" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="B1431" s="1" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1432" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1432" s="1" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="B1432" s="1" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1433" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1433" s="1" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="B1433" s="1" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="1434" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1434" s="1" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="B1434" s="1" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1435" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1435" s="1" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="B1435" s="1" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="1436" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1436" s="1" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="B1436" s="1" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="1437" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1437" s="1" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="B1437" s="1" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="1438" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1438" s="1" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="B1438" s="1" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="1439" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1439" s="1" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="B1439" s="1" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1440" s="1" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="B1440" s="1" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="1441" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1441" s="1" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="B1441" s="1" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1442" s="1" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="B1442" s="1" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1443" s="1" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="B1443" s="1" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1444" s="1" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="B1444" s="1" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1445" s="1" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="B1445" s="1" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1446" s="1" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="B1446" s="1" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1447" s="1" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="B1447" s="1" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1448" s="1" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="B1448" s="1" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1449" s="1" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="B1449" s="1" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1450" s="1" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="B1450" s="1" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1451" s="1" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="B1451" s="1" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1452" s="1" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="B1452" s="1" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1453" s="1" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="B1453" s="1" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1454" s="1" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="B1454" s="1" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1455" s="1" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="B1455" s="1" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1456" s="1" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="B1456" s="1" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1457" s="1" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="B1457" s="1" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1458" s="1" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="B1458" s="1" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1459" s="1" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="B1459" s="1" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1460" s="1" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="B1460" s="1" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1461" s="1" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="B1461" s="1" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1462" s="1" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="B1462" s="1" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1463" s="1" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="B1463" s="1" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1464" s="1" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="B1464" s="1" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1465" s="1" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="B1465" s="1" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1466" s="1" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="B1466" s="1" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1467" s="1" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="B1467" s="1" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1468" s="1" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="B1468" s="1" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1469" s="1" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="B1469" s="1" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1470" s="1" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="B1470" s="1" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1471" s="1" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="B1471" s="1" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1472" s="1" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="B1472" s="1" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1473" s="1" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="B1473" s="1" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1474" s="1" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="B1474" s="1" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1475" s="1" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="B1475" s="1" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1476" s="1" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="B1476" s="1" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1477" s="1" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="B1477" s="1" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1478" s="1" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="B1478" s="1" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1479" s="1" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="B1479" s="1" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="1480" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1480" s="1" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="B1480" s="1" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1481" s="1" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="B1481" s="1" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="1482" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1482" s="1" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="B1482" s="1" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1483" s="1" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="B1483" s="1" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1484" s="1" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="B1484" s="1" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1485" s="1" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="B1485" s="1" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1486" s="1" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="B1486" s="1" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1487" s="1" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="B1487" s="1" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1488" s="1" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="B1488" s="1" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1489" s="1" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="B1489" s="1" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1490" s="1" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="B1490" s="1" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1491" s="1" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="B1491" s="1" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1492" s="1" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="B1492" s="1" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1493" s="1" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="B1493" s="1" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1494" s="1" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="B1494" s="1" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1495" s="1" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="B1495" s="1" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1496" s="1" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="B1496" s="1" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1497" s="1" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="B1497" s="1" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="1498" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1498" s="1" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="B1498" s="1" t="s">
-        <v>1494</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1499" s="1" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="B1499" s="1" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="1500" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1500" s="1" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="B1500" s="1" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="1501" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1501" s="1" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="B1501" s="1" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="1502" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A1502" s="1" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="B1502" s="1" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1503" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B1503" s="1" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1504" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B1504" s="1" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1505" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B1505" s="1" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1506" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1506" s="1" t="s">
         <v>1990</v>
       </c>
     </row>
-    <row r="1503" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1503" s="1" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B1503" s="1" t="s">
+    <row r="1507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1507" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B1507" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1508" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B1508" s="1" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A1509" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B1509" s="1" t="s">
         <v>1991</v>
       </c>
     </row>
-    <row r="1504" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1504" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B1504" s="1" t="s">
+    <row r="1510" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1510" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B1510" s="1" t="s">
         <v>1992</v>
       </c>
     </row>
-    <row r="1505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1505" s="1" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B1505" s="1" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="1506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1506" s="1" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B1506" s="1" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="1507" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1507" s="1" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B1507" s="1" t="s">
+    <row r="1511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1511" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B1511" s="1" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1512" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B1512" s="1" t="s">
         <v>1993</v>
       </c>
     </row>
-    <row r="1508" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1508" s="1" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B1508" s="1" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="1509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1509" s="1" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B1509" s="1" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="1510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1510" s="1" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B1510" s="1" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="1511" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A1511" s="1" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B1511" s="1" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="1512" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1512" s="1" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B1512" s="1" t="s">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="1513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1513" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1513" s="1" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="B1513" s="1" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="1514" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1514" s="1" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="B1514" s="1" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="1515" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1515" s="1" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="B1515" s="1" t="s">
-        <v>1921</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1516" s="1" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="B1516" s="1" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1517" s="1" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="B1517" s="1" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="1518" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1518" s="1" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="B1518" s="1" t="s">
-        <v>1514</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1519" s="1" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="B1519" s="1" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="1520" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1520" s="1" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="B1520" s="1" t="s">
-        <v>1998</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1521" s="1" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="B1521" s="1" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1522" s="1" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="B1522" s="1" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="1523" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1523" s="1" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="B1523" s="1" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="1524" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1524" s="1" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="B1524" s="1" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="1525" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1525" s="1" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="B1525" s="1" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="1526" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1526" s="1" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="B1526" s="1" t="s">
-        <v>2000</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1527" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B1527" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1528" s="1" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="B1528" s="1" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="1529" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1529" s="1" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="B1529" s="1" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="1530" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1530" s="1" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="B1530" s="1" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="1531" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1531" s="1" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="B1531" s="1" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="1532" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1532" s="1" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B1532" s="1" t="s">
-        <v>1528</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1533" s="1" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="B1533" s="1" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1534" s="1" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="B1534" s="1" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1535" s="1" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="B1535" s="1" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1536" s="1" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="B1536" s="1" t="s">
-        <v>1532</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1537" s="1" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="B1537" s="1" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1538" s="1" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="B1538" s="1" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="1539" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1539" s="1" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="B1539" s="1" t="s">
-        <v>1535</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1540" s="1" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="B1540" s="1" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="1541" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1541" s="1" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="B1541" s="1" t="s">
-        <v>1852</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1542" s="1" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="B1542" s="1" t="s">
-        <v>1538</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1543" s="1" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="B1543" s="1" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1544" s="1" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="B1544" s="1" t="s">
-        <v>1661</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1545" s="1" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="B1545" s="1" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1546" s="1" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="B1546" s="1" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="1547" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1547" s="1" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="B1547" s="1" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="1548" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1548" s="1" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="B1548" s="1" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="1549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1549" s="1" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="B1549" s="1" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1550" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1550" s="1" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="B1550" s="1" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="1551" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1551" s="1" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="B1551" s="1" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="1552" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1552" s="1" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="B1552" s="1" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="1553" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1553" s="1" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="B1553" s="1" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1554" s="1" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="B1554" s="1" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1555" s="1" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="B1555" s="1" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1556" s="1" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="B1556" s="1" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1557" s="1" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="B1557" s="1" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1558" s="1" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="B1558" s="1" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1559" s="1" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="B1559" s="1" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1560" s="1" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="B1560" s="1" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1561" s="1" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="B1561" s="1" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1562" s="1" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="B1562" s="1" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1563" s="1" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="B1563" s="1" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1564" s="1" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="B1564" s="1" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1565" s="1" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="B1565" s="1" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1566" s="1" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="B1566" s="1" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1567" s="1" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="B1567" s="1" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1568" s="1" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="B1568" s="1" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1569" s="1" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="B1569" s="1" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1570" s="1" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="B1570" s="1" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1571" s="1" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="B1571" s="1" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1572" s="1" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="B1572" s="1" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1573" s="1" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="B1573" s="1" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1574" s="1" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="B1574" s="1" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1575" s="1" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1575" s="1" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1576" s="1" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="B1576" s="1" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1577" s="1" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="B1577" s="1" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1578" s="1" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="B1578" s="1" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1579" s="1" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="B1579" s="1" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1580" s="1" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="B1580" s="1" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1581" s="1" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="B1581" s="1" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1582" s="1" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="B1582" s="1" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1583" s="1" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="B1583" s="1" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1584" s="1" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="B1584" s="1" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1585" s="1" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="B1585" s="1" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1586" s="1" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="B1586" s="1" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1587" s="1" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="B1587" s="1" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1588" s="1" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="B1588" s="1" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1589" s="1" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="B1589" s="1" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1590" s="1" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="B1590" s="1" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="1591" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1591" s="1" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="B1591" s="1" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="1592" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1592" s="1" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="B1592" s="1" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="1593" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1593" s="1" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="B1593" s="1" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="1594" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1594" s="1" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="B1594" s="1" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1595" s="1" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="B1595" s="1" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1596" s="1" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="B1596" s="1" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1597" s="1" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="B1597" s="1" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1598" s="1" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="B1598" s="1" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1599" s="1" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="B1599" s="1" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1600" s="1" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="B1600" s="1" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1601" s="1" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="B1601" s="1" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1602" s="1" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="B1602" s="1" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1603" s="1" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="B1603" s="1" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1604" s="1" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="B1604" s="1" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1605" s="1" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="B1605" s="1" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1606" s="1" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="B1606" s="1" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1607" s="1" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="B1607" s="1" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="1608" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1608" s="1" t="s">
-        <v>1604</v>
+        <v>1621</v>
       </c>
       <c r="B1608" s="1" t="s">
-        <v>1604</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1609" s="1" t="s">
-        <v>1605</v>
+        <v>1622</v>
       </c>
       <c r="B1609" s="1" t="s">
-        <v>1605</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1610" s="1" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="B1610" s="1" t="s">
         <v>1620</v>
@@ -19281,23 +19317,23 @@
     </row>
     <row r="1611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1611" s="1" t="s">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="B1611" s="1" t="s">
-        <v>1620</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1612" s="1" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="B1612" s="1" t="s">
-        <v>1620</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1613" s="1" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="B1613" s="1" t="s">
         <v>1627</v>
@@ -19305,7 +19341,7 @@
     </row>
     <row r="1614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1614" s="1" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="B1614" s="1" t="s">
         <v>1627</v>
@@ -19313,7 +19349,7 @@
     </row>
     <row r="1615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1615" s="1" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="B1615" s="1" t="s">
         <v>1627</v>
@@ -19321,31 +19357,31 @@
     </row>
     <row r="1616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1616" s="1" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="B1616" s="1" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="1617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1617" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1617" s="1" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="B1617" s="1" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="1618" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1618" s="1" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="B1618" s="1" t="s">
-        <v>1627</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1619" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1619" s="1" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B1619" s="1" t="s">
         <v>1632</v>
@@ -19353,7 +19389,7 @@
     </row>
     <row r="1620" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1620" s="1" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="B1620" s="1" t="s">
         <v>1632</v>
@@ -19361,23 +19397,23 @@
     </row>
     <row r="1621" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1621" s="1" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="B1621" s="1" t="s">
-        <v>1632</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1622" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1622" s="1" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="B1622" s="1" t="s">
-        <v>1632</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1623" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1623" s="1" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="B1623" s="1" t="s">
         <v>1638</v>
@@ -19385,7 +19421,7 @@
     </row>
     <row r="1624" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1624" s="1" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="B1624" s="1" t="s">
         <v>1638</v>
@@ -19393,7 +19429,7 @@
     </row>
     <row r="1625" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1625" s="1" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="B1625" s="1" t="s">
         <v>1638</v>
@@ -19401,23 +19437,23 @@
     </row>
     <row r="1626" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1626" s="1" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="B1626" s="1" t="s">
-        <v>1638</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1627" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1627" s="1" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="B1627" s="1" t="s">
-        <v>1638</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1628" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1628" s="1" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="B1628" s="1" t="s">
         <v>1657</v>
@@ -19425,39 +19461,39 @@
     </row>
     <row r="1629" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1629" s="1" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="B1629" s="1" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="1630" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1630" s="1" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="B1630" s="1" t="s">
-        <v>1657</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1631" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1631" s="1" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="B1631" s="1" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="1632" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1632" s="1" t="s">
-        <v>1648</v>
+        <v>1964</v>
       </c>
       <c r="B1632" s="1" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1633" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1633" s="1" t="s">
-        <v>1649</v>
+        <v>1965</v>
       </c>
       <c r="B1633" s="1" t="s">
         <v>1632</v>
@@ -19465,7 +19501,7 @@
     </row>
     <row r="1634" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1634" s="1" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B1634" s="1" t="s">
         <v>1650</v>
@@ -19473,15 +19509,15 @@
     </row>
     <row r="1635" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1635" s="1" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B1635" s="1" t="s">
-        <v>1632</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1636" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1636" s="1" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="B1636" s="1" t="s">
         <v>1650</v>
@@ -19489,7 +19525,7 @@
     </row>
     <row r="1637" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1637" s="1" t="s">
-        <v>1971</v>
+        <v>1651</v>
       </c>
       <c r="B1637" s="1" t="s">
         <v>1650</v>
@@ -19497,7 +19533,7 @@
     </row>
     <row r="1638" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1638" s="1" t="s">
-        <v>1972</v>
+        <v>1652</v>
       </c>
       <c r="B1638" s="1" t="s">
         <v>1650</v>
@@ -19505,7 +19541,7 @@
     </row>
     <row r="1639" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1639" s="1" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="B1639" s="1" t="s">
         <v>1650</v>
@@ -19513,55 +19549,55 @@
     </row>
     <row r="1640" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1640" s="1" t="s">
-        <v>1652</v>
+        <v>1969</v>
       </c>
       <c r="B1640" s="1" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="1641" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1641" s="1" t="s">
-        <v>1653</v>
+        <v>1970</v>
       </c>
       <c r="B1641" s="1" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="1642" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1642" s="1" t="s">
-        <v>1973</v>
+        <v>1655</v>
       </c>
       <c r="B1642" s="1" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1643" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1643" s="1" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="1643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1643" s="1" t="s">
-        <v>1974</v>
-      </c>
-      <c r="B1643" s="1" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="1644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1644" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1644" s="1" t="s">
-        <v>1655</v>
+        <v>1971</v>
       </c>
       <c r="B1644" s="1" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1645" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1645" s="1" t="s">
-        <v>1656</v>
+        <v>1972</v>
       </c>
       <c r="B1645" s="1" t="s">
-        <v>1647</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1646" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1646" s="1" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="B1646" s="1" t="s">
         <v>1657</v>
@@ -19569,7 +19605,7 @@
     </row>
     <row r="1647" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1647" s="1" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B1647" s="1" t="s">
         <v>1657</v>
@@ -19577,7 +19613,7 @@
     </row>
     <row r="1648" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1648" s="1" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B1648" s="1" t="s">
         <v>1657</v>
@@ -19585,7 +19621,7 @@
     </row>
     <row r="1649" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1649" s="1" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="B1649" s="1" t="s">
         <v>1657</v>
@@ -19593,7 +19629,7 @@
     </row>
     <row r="1650" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1650" s="1" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B1650" s="1" t="s">
         <v>1657</v>
@@ -19601,7 +19637,7 @@
     </row>
     <row r="1651" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1651" s="1" t="s">
-        <v>1980</v>
+        <v>1658</v>
       </c>
       <c r="B1651" s="1" t="s">
         <v>1657</v>
@@ -19609,7 +19645,7 @@
     </row>
     <row r="1652" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1652" s="1" t="s">
-        <v>1981</v>
+        <v>1659</v>
       </c>
       <c r="B1652" s="1" t="s">
         <v>1657</v>
@@ -19617,357 +19653,357 @@
     </row>
     <row r="1653" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1653" s="1" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="B1653" s="1" t="s">
         <v>1657</v>
       </c>
     </row>
-    <row r="1654" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1654" s="1" t="s">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="B1654" s="1" t="s">
-        <v>1657</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1655" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1655" s="1" t="s">
-        <v>1660</v>
+        <v>1666</v>
       </c>
       <c r="B1655" s="1" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="1656" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1656" s="1" t="s">
-        <v>1663</v>
+        <v>1668</v>
       </c>
       <c r="B1656" s="1" t="s">
-        <v>1664</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1657" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1657" s="1" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="B1657" s="1" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="1658" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1658" s="1" t="s">
-        <v>1668</v>
+        <v>1673</v>
       </c>
       <c r="B1658" s="1" t="s">
-        <v>1669</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1659" s="1" t="s">
-        <v>1670</v>
+        <v>1675</v>
       </c>
       <c r="B1659" s="1" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="1660" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1660" s="1" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
       <c r="B1660" s="1" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="1661" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1661" s="1" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="B1661" s="1" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="1662" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1662" s="1" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="B1662" s="1" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="1663" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1663" s="1" t="s">
-        <v>1681</v>
+        <v>1403</v>
       </c>
       <c r="B1663" s="1" t="s">
         <v>1682</v>
       </c>
     </row>
-    <row r="1664" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1664" s="1" t="s">
         <v>1683</v>
       </c>
       <c r="B1664" s="1" t="s">
-        <v>1747</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1665" s="1" t="s">
-        <v>1403</v>
+        <v>1684</v>
       </c>
       <c r="B1665" s="1" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1666" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B1666" s="1" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1667" s="1" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="B1667" s="1" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="1668" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1668" s="1" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="B1668" s="1" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="1669" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1669" s="1" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="B1669" s="1" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="1670" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1670" s="1" t="s">
-        <v>1692</v>
+        <v>1406</v>
       </c>
       <c r="B1670" s="1" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="1671" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1671" s="1" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1671" s="1" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="1672" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1672" s="1" t="s">
-        <v>1406</v>
+        <v>1696</v>
       </c>
       <c r="B1672" s="1" t="s">
-        <v>1696</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1673" s="1" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B1673" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1674" s="1" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="B1674" s="1" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1675" s="1" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1675" s="1" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="1676" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1676" s="1" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1676" s="1" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="1677" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1677" s="1" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1677" s="1" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="1678" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1678" s="1" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1678" s="1" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="1679" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1679" s="1" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="B1679" s="1" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1680" s="1" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="B1680" s="1" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1681" s="1" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1681" s="1" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="1682" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1682" s="1" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="B1682" s="1" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="1683" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1683" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B1683" s="1" t="s">
         <v>1718</v>
       </c>
-      <c r="B1683" s="1" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="1684" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1684" s="1" t="s">
         <v>1722</v>
       </c>
       <c r="B1684" s="1" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="1685" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1685" s="1" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="B1685" s="1" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="1686" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1686" s="1" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="B1686" s="1" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1687" s="1" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1687" s="1" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="1688" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1688" s="1" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="B1688" s="1" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1689" s="1" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="B1689" s="1" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1690" s="1" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="B1690" s="1" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="1691" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1691" s="1" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="B1691" s="1" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1692" s="1" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="B1692" s="1" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1693" s="1" t="s">
-        <v>1743</v>
+        <v>1748</v>
       </c>
       <c r="B1693" s="1" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1694" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1694" s="1" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="B1694" s="1" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1695" s="1" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1695" s="1" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1696" s="1" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1696" s="1" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1697" s="1" t="s">
         <v>1755</v>
       </c>
@@ -19980,39 +20016,39 @@
         <v>1757</v>
       </c>
       <c r="B1698" s="1" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1699" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1699" s="1" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="1699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1699" s="1" t="s">
+    <row r="1700" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1700" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B1700" s="1" t="s">
         <v>1759</v>
-      </c>
-      <c r="B1699" s="1" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="1700" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1700" s="1" t="s">
-        <v>1761</v>
-      </c>
-      <c r="B1700" s="1" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="1701" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1701" s="1" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="B1701" s="1" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1702" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1702" s="1" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B1702" s="1" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1703" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20023,7 +20059,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="1704" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1704" s="1" t="s">
         <v>1769</v>
       </c>
@@ -20031,28 +20067,28 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="1705" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1705" s="1" t="s">
         <v>1771</v>
       </c>
       <c r="B1705" s="1" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1706" s="1" t="s">
         <v>1772</v>
       </c>
-    </row>
-    <row r="1706" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1706" s="1" t="s">
+      <c r="B1706" s="1" t="s">
         <v>1773</v>
-      </c>
-      <c r="B1706" s="1" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="1707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1707" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1707" s="1" t="s">
         <v>1775</v>
-      </c>
-      <c r="B1707" s="1" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="1708" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20068,36 +20104,36 @@
         <v>1778</v>
       </c>
       <c r="B1709" s="1" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1710" s="1" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="1710" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1710" s="1" t="s">
+      <c r="B1710" s="1" t="s">
         <v>1780</v>
-      </c>
-      <c r="B1710" s="1" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="1711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1711" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B1711" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1712" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1712" s="1" t="s">
         <v>1783</v>
-      </c>
-      <c r="B1712" s="1" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="1713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1713" s="1" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B1713" s="1" t="s">
         <v>1785</v>
@@ -20105,34 +20141,34 @@
     </row>
     <row r="1714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1714" s="1" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="B1714" s="1" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1715" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1715" s="1" t="s">
         <v>1788</v>
-      </c>
-      <c r="B1715" s="1" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="1716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1716" s="1" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B1716" s="1" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="1717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1717" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1717" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1717" s="1" t="s">
         <v>1794</v>
-      </c>
-      <c r="B1717" s="1" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="1718" spans="1:2" x14ac:dyDescent="0.25">
@@ -20140,44 +20176,44 @@
         <v>1795</v>
       </c>
       <c r="B1718" s="1" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1719" s="1" t="s">
         <v>1796</v>
       </c>
-    </row>
-    <row r="1719" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1719" s="1" t="s">
-        <v>1797</v>
-      </c>
       <c r="B1719" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1720" s="1" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="B1720" s="1" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1721" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1721" s="1" t="s">
         <v>1800</v>
       </c>
-      <c r="B1721" s="1" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="1722" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1722" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1722" s="1" t="s">
         <v>1801</v>
       </c>
       <c r="B1722" s="1" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="1723" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1723" s="1" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B1723" s="1" t="s">
         <v>1804</v>
@@ -20188,36 +20224,36 @@
         <v>1805</v>
       </c>
       <c r="B1724" s="1" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1725" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1725" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1725" s="1" t="s">
         <v>1807</v>
-      </c>
-      <c r="B1725" s="1" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="1726" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1726" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1726" s="1" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1727" s="1" t="s">
         <v>1809</v>
-      </c>
-      <c r="B1726" s="1" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="1727" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1727" s="1" t="s">
-        <v>1810</v>
       </c>
       <c r="B1727" s="1" t="s">
         <v>1811</v>
       </c>
     </row>
-    <row r="1728" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1728" s="1" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="B1728" s="1" t="s">
         <v>1811</v>
@@ -20225,149 +20261,149 @@
     </row>
     <row r="1729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1729" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B1729" s="1" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1730" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1730" s="1" t="s">
         <v>1814</v>
-      </c>
-      <c r="B1730" s="1" t="s">
-        <v>1815</v>
       </c>
     </row>
     <row r="1731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1731" s="1" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B1731" s="1" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1732" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B1732" s="1" t="s">
         <v>1817</v>
-      </c>
-      <c r="B1732" s="1" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="1733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1733" s="1" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B1733" s="1" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1734" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1734" s="1" t="s">
         <v>1820</v>
       </c>
-      <c r="B1734" s="1" t="s">
+    </row>
+    <row r="1735" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1735" s="1" t="s">
         <v>1821</v>
       </c>
-    </row>
-    <row r="1735" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1735" s="1" t="s">
+      <c r="B1735" s="1" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1736" s="1" t="s">
         <v>1822</v>
       </c>
-      <c r="B1735" s="1" t="s">
+      <c r="B1736" s="1" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1737" s="1" t="s">
         <v>1824</v>
       </c>
-    </row>
-    <row r="1736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1736" s="1" t="s">
-        <v>1823</v>
-      </c>
-      <c r="B1736" s="1" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="1737" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1737" s="1" t="s">
+      <c r="B1737" s="1" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1738" s="1" t="s">
         <v>1825</v>
       </c>
-      <c r="B1737" s="1" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="1738" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1738" s="1" t="s">
-        <v>1826</v>
-      </c>
       <c r="B1738" s="1" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1739" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1739" s="1" t="s">
         <v>1828</v>
-      </c>
-      <c r="B1739" s="1" t="s">
-        <v>1832</v>
       </c>
     </row>
     <row r="1740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1740" s="1" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="B1740" s="1" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1741" s="1" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B1741" s="1" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1742" s="1" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B1742" s="1" t="s">
         <v>1832</v>
       </c>
     </row>
-    <row r="1743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1743" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1743" s="1" t="s">
         <v>1833</v>
       </c>
       <c r="B1743" s="1" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1744" s="1" t="s">
         <v>1835</v>
       </c>
-    </row>
-    <row r="1744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1744" s="1" t="s">
-        <v>1834</v>
-      </c>
       <c r="B1744" s="1" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1745" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1745" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1745" s="1" t="s">
         <v>1837</v>
-      </c>
-      <c r="B1745" s="1" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="1746" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1746" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1746" s="1" t="s">
         <v>1839</v>
       </c>
-      <c r="B1746" s="1" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="1747" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1747" s="1" t="s">
         <v>1840</v>
       </c>
@@ -20375,81 +20411,81 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="1748" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1748" s="1" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="B1748" s="1" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1749" s="1" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B1749" s="1" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="1750" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1750" s="1" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="B1750" s="1" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="1751" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1751" s="1" t="s">
         <v>1849</v>
       </c>
       <c r="B1751" s="1" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1752" s="1" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B1752" s="1" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="1753" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1753" s="1" t="s">
         <v>1853</v>
       </c>
       <c r="B1753" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1754" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B1754" s="1" t="s">
         <v>1855</v>
-      </c>
-      <c r="B1754" s="1" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="1755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1755" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B1755" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1756" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1756" s="1" t="s">
         <v>1858</v>
-      </c>
-      <c r="B1756" s="1" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="1757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1757" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B1757" s="1" t="s">
         <v>1860</v>
@@ -20460,58 +20496,58 @@
         <v>1861</v>
       </c>
       <c r="B1758" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1759" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B1759" s="1" t="s">
         <v>1863</v>
-      </c>
-      <c r="B1759" s="1" t="s">
-        <v>1864</v>
       </c>
     </row>
     <row r="1760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1760" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B1760" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1761" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1761" s="1" t="s">
         <v>1866</v>
-      </c>
-      <c r="B1761" s="1" t="s">
-        <v>1867</v>
       </c>
     </row>
     <row r="1762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1762" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B1762" s="1" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="1763" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1763" s="1" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="B1763" s="1" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="1764" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1764" s="1" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="B1764" s="1" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="1765" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1765" s="1" t="s">
         <v>1875</v>
       </c>
@@ -20519,7 +20555,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="1766" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1766" s="1" t="s">
         <v>1877</v>
       </c>
@@ -20527,7 +20563,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="1767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1767" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1767" s="1" t="s">
         <v>1879</v>
       </c>
@@ -20551,7 +20587,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="1770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1770" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1770" s="1" t="s">
         <v>1885</v>
       </c>
@@ -20577,58 +20613,58 @@
     </row>
     <row r="1773" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1773" s="1" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B1773" s="1" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1774" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1774" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B1774" s="1" t="s">
         <v>1893</v>
-      </c>
-      <c r="B1774" s="1" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="1775" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1775" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B1775" s="1" t="s">
         <v>1896</v>
-      </c>
-      <c r="B1775" s="1" t="s">
-        <v>1897</v>
       </c>
     </row>
     <row r="1776" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1776" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B1776" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1777" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1777" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B1777" s="1" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1778" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1778" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1778" s="1" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1779" s="1" t="s">
         <v>1901</v>
       </c>
-      <c r="B1778" s="1" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="1779" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1779" s="1" t="s">
+      <c r="B1779" s="1" t="s">
         <v>1902</v>
-      </c>
-      <c r="B1779" s="1" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="1780" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -20636,26 +20672,26 @@
         <v>1903</v>
       </c>
       <c r="B1780" s="1" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="1781" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1781" s="1" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="B1781" s="1" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="1782" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1782" s="1" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B1782" s="1" t="s">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="1783" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1783" s="1" t="s">
         <v>1910</v>
       </c>
@@ -20673,74 +20709,83 @@
     </row>
     <row r="1785" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1785" s="1" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B1785" s="1" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1786" s="1" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="B1786" s="1" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1787" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1787" s="1" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="B1787" s="1" t="s">
         <v>1920</v>
       </c>
     </row>
-    <row r="1788" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1788" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1788" s="1" t="s">
-        <v>1923</v>
+        <v>1614</v>
       </c>
       <c r="B1788" s="1" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="1789" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2001</v>
+      </c>
+      <c r="C1788" s="1"/>
+      <c r="D1788" s="1"/>
+      <c r="E1788" s="1"/>
+      <c r="F1788" s="2"/>
+    </row>
+    <row r="1789" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1789" s="1" t="s">
-        <v>1925</v>
+        <v>1612</v>
       </c>
       <c r="B1789" s="1" t="s">
-        <v>1924</v>
-      </c>
+        <v>2014</v>
+      </c>
+      <c r="C1789" s="1"/>
+      <c r="D1789" s="1"/>
+      <c r="E1789" s="1"/>
+      <c r="F1789" s="1"/>
     </row>
     <row r="1790" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1790" s="1" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="B1790" s="1" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="C1790" s="1"/>
       <c r="D1790" s="1"/>
       <c r="E1790" s="1"/>
-      <c r="F1790" s="2"/>
+      <c r="F1790" s="1"/>
+      <c r="G1790" s="1"/>
     </row>
     <row r="1791" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1791" s="1" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
       <c r="B1791" s="1" t="s">
-        <v>1612</v>
+        <v>2013</v>
       </c>
       <c r="C1791" s="1"/>
       <c r="D1791" s="1"/>
       <c r="E1791" s="1"/>
-      <c r="F1791" s="1"/>
+      <c r="F1791" s="2"/>
     </row>
     <row r="1792" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1792" s="1" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="B1792" s="1" t="s">
-        <v>1617</v>
+        <v>2011</v>
       </c>
       <c r="C1792" s="1"/>
       <c r="D1792" s="1"/>
@@ -20750,47 +20795,46 @@
     </row>
     <row r="1793" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1793" s="1" t="s">
-        <v>1618</v>
+        <v>1606</v>
       </c>
       <c r="B1793" s="1" t="s">
-        <v>1618</v>
+        <v>2013</v>
       </c>
       <c r="C1793" s="1"/>
       <c r="D1793" s="1"/>
       <c r="E1793" s="1"/>
-      <c r="F1793" s="2"/>
+      <c r="F1793" s="1"/>
     </row>
     <row r="1794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1794" s="1" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="B1794" s="1" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="C1794" s="1"/>
       <c r="D1794" s="1"/>
       <c r="E1794" s="1"/>
       <c r="F1794" s="1"/>
-      <c r="G1794" s="1"/>
-    </row>
-    <row r="1795" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1795" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1795" s="1" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="B1795" s="1" t="s">
-        <v>1606</v>
+        <v>2015</v>
       </c>
       <c r="C1795" s="1"/>
       <c r="D1795" s="1"/>
       <c r="E1795" s="1"/>
       <c r="F1795" s="1"/>
     </row>
-    <row r="1796" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1796" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1796" s="1" t="s">
-        <v>1610</v>
+        <v>1615</v>
       </c>
       <c r="B1796" s="1" t="s">
-        <v>1610</v>
+        <v>2017</v>
       </c>
       <c r="C1796" s="1"/>
       <c r="D1796" s="1"/>
@@ -20799,10 +20843,10 @@
     </row>
     <row r="1797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1797" s="1" t="s">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="B1797" s="1" t="s">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="C1797" s="1"/>
       <c r="D1797" s="1"/>
@@ -20811,34 +20855,36 @@
     </row>
     <row r="1798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1798" s="1" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="B1798" s="1" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="C1798" s="1"/>
       <c r="D1798" s="1"/>
       <c r="E1798" s="1"/>
       <c r="F1798" s="1"/>
-    </row>
-    <row r="1799" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1798" s="1"/>
+    </row>
+    <row r="1799" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1799" s="1" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="B1799" s="1" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="C1799" s="1"/>
       <c r="D1799" s="1"/>
       <c r="E1799" s="1"/>
       <c r="F1799" s="1"/>
+      <c r="G1799" s="1"/>
     </row>
     <row r="1800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1800" s="1" t="s">
-        <v>1611</v>
+        <v>1616</v>
       </c>
       <c r="B1800" s="1" t="s">
-        <v>1611</v>
+        <v>1616</v>
       </c>
       <c r="C1800" s="1"/>
       <c r="D1800" s="1"/>
@@ -20846,40 +20892,28 @@
       <c r="F1800" s="1"/>
       <c r="G1800" s="1"/>
     </row>
-    <row r="1801" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1801" s="1" t="s">
-        <v>1609</v>
+        <v>2004</v>
       </c>
       <c r="B1801" s="1" t="s">
-        <v>1609</v>
+        <v>2005</v>
       </c>
       <c r="C1801" s="1"/>
       <c r="D1801" s="1"/>
       <c r="E1801" s="1"/>
-      <c r="F1801" s="1"/>
-      <c r="G1801" s="1"/>
-    </row>
-    <row r="1802" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1801" s="2"/>
+    </row>
+    <row r="1802" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1802" s="1" t="s">
-        <v>1616</v>
+        <v>2009</v>
       </c>
       <c r="B1802" s="1" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C1802" s="1"/>
-      <c r="D1802" s="1"/>
-      <c r="E1802" s="1"/>
-      <c r="F1802" s="1"/>
-      <c r="G1802" s="1"/>
-    </row>
-    <row r="1803" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1803" s="1"/>
-      <c r="D1803" s="1"/>
-      <c r="E1803" s="1"/>
-      <c r="F1803" s="2"/>
+        <v>2010</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G1802" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
+  <autoFilter ref="A2:G1801" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="A1:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C86B402-3C76-4615-8DBC-34DEFA2055F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CF5B6B-4660-4847-8F21-832A9A424902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="2018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="2020">
   <si>
     <t>Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</t>
   </si>
@@ -5095,9 +5095,6 @@
   </si>
   <si>
     <t>Thái Dương, Thái Âm đồng cung tại Tật Ách</t>
-  </si>
-  <si>
-    <t>Bệnh nạn liên miên</t>
   </si>
   <si>
     <t>Thái Dương sáng tại Tật Ách gặp Thiên Riêu, Hóa Kỵ, Đà La</t>
@@ -6087,6 +6084,15 @@
   </si>
   <si>
     <t>Chủ về thấp khí, có thể phát triển thành thuỷ thũng, bụng trướng</t>
+  </si>
+  <si>
+    <t>Chủ về xảy ra sự cố bất trắc mà bị thương</t>
+  </si>
+  <si>
+    <t>Trước là rối loạn nội tiết, trường hợp sau là đau đầu kinh niên hoặc thiên đầu thống.</t>
+  </si>
+  <si>
+    <t>Bệnh nạn liên miên. Trước là rối loạn nội tiết, trường hợp sau là đau đầu kinh niên hoặc thiên đầu thống.</t>
   </si>
 </sst>
 </file>
@@ -6423,8 +6429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A2:G1802"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1779" workbookViewId="0">
-      <selection activeCell="C1793" sqref="C1793"/>
+    <sheetView tabSelected="1" topLeftCell="A1778" workbookViewId="0">
+      <selection activeCell="C1791" sqref="C1791"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6439,7 +6445,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6447,7 +6453,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6455,7 +6461,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6463,7 +6469,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6471,7 +6477,7 @@
         <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6479,7 +6485,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6650,7 +6656,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -6711,7 +6717,7 @@
         <v>72</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7879,7 +7885,7 @@
         <v>218</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -7887,7 +7893,7 @@
         <v>219</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8175,7 +8181,7 @@
         <v>255</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -9050,7 +9056,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>360</v>
       </c>
@@ -9082,7 +9088,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>364</v>
       </c>
@@ -9287,7 +9293,7 @@
         <v>389</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11255,7 +11261,7 @@
         <v>635</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13199,7 +13205,7 @@
         <v>877</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
@@ -15063,7 +15069,7 @@
         <v>1097</v>
       </c>
       <c r="B1080" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.25">
@@ -15527,7 +15533,7 @@
         <v>1155</v>
       </c>
       <c r="B1138" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15650,7 +15656,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="1154" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1154" s="1" t="s">
         <v>1171</v>
       </c>
@@ -15874,7 +15880,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="1182" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1182" s="1" t="s">
         <v>1199</v>
       </c>
@@ -15986,7 +15992,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="1196" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1196" s="1" t="s">
         <v>1213</v>
       </c>
@@ -16042,7 +16048,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="1203" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1203" s="1" t="s">
         <v>1220</v>
       </c>
@@ -16647,7 +16653,7 @@
         <v>20</v>
       </c>
       <c r="B1278" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.25">
@@ -16700,10 +16706,10 @@
     </row>
     <row r="1285" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1285" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B1285" s="1" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16711,7 +16717,7 @@
         <v>27</v>
       </c>
       <c r="B1286" s="1" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1287" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -16719,7 +16725,7 @@
         <v>28</v>
       </c>
       <c r="B1287" s="1" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.25">
@@ -16727,7 +16733,7 @@
         <v>29</v>
       </c>
       <c r="B1288" s="1" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1289" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -16735,7 +16741,7 @@
         <v>30</v>
       </c>
       <c r="B1289" s="1" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.25">
@@ -16815,7 +16821,7 @@
         <v>1296</v>
       </c>
       <c r="B1299" s="1" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1300" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -16823,7 +16829,7 @@
         <v>1297</v>
       </c>
       <c r="B1300" s="1" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1301" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -16831,7 +16837,7 @@
         <v>1298</v>
       </c>
       <c r="B1301" s="1" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1302" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -16839,7 +16845,7 @@
         <v>1299</v>
       </c>
       <c r="B1302" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1303" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -16847,7 +16853,7 @@
         <v>1300</v>
       </c>
       <c r="B1303" s="1" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
@@ -16855,7 +16861,7 @@
         <v>1301</v>
       </c>
       <c r="B1304" s="1" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1305" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -16863,7 +16869,7 @@
         <v>1302</v>
       </c>
       <c r="B1305" s="1" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1306" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -16871,7 +16877,7 @@
         <v>1303</v>
       </c>
       <c r="B1306" s="1" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1307" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -16879,7 +16885,7 @@
         <v>1304</v>
       </c>
       <c r="B1307" s="1" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1308" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -16887,7 +16893,7 @@
         <v>1305</v>
       </c>
       <c r="B1308" s="1" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1309" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -16895,7 +16901,7 @@
         <v>1306</v>
       </c>
       <c r="B1309" s="1" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1310" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -16903,13 +16909,13 @@
         <v>1307</v>
       </c>
       <c r="B1310" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1310" s="1" t="s">
         <v>1935</v>
       </c>
-      <c r="C1310" s="1" t="s">
+      <c r="D1310" s="1" t="s">
         <v>1936</v>
-      </c>
-      <c r="D1310" s="1" t="s">
-        <v>1937</v>
       </c>
     </row>
     <row r="1311" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -16917,7 +16923,7 @@
         <v>1308</v>
       </c>
       <c r="B1311" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1312" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -16925,7 +16931,7 @@
         <v>1309</v>
       </c>
       <c r="B1312" s="1" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1313" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -16933,7 +16939,7 @@
         <v>1310</v>
       </c>
       <c r="B1313" s="1" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1314" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16941,7 +16947,7 @@
         <v>1311</v>
       </c>
       <c r="B1314" s="1" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16949,15 +16955,15 @@
         <v>1312</v>
       </c>
       <c r="B1315" s="1" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="1316" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A1316" s="1" t="s">
         <v>1313</v>
       </c>
       <c r="B1316" s="1" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.25">
@@ -16965,7 +16971,7 @@
         <v>1314</v>
       </c>
       <c r="B1317" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1318" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16973,7 +16979,7 @@
         <v>1315</v>
       </c>
       <c r="B1318" s="1" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1319" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16981,7 +16987,7 @@
         <v>1316</v>
       </c>
       <c r="B1319" s="1" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1320" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16989,7 +16995,7 @@
         <v>1317</v>
       </c>
       <c r="B1320" s="1" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1321" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -16997,7 +17003,7 @@
         <v>1318</v>
       </c>
       <c r="B1321" s="1" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1322" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17005,7 +17011,7 @@
         <v>1319</v>
       </c>
       <c r="B1322" s="1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17013,15 +17019,15 @@
         <v>1320</v>
       </c>
       <c r="B1323" s="1" t="s">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A1324" s="1" t="s">
         <v>1321</v>
       </c>
       <c r="B1324" s="1" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1325" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -17029,7 +17035,7 @@
         <v>1322</v>
       </c>
       <c r="B1325" s="1" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1326" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -17037,15 +17043,15 @@
         <v>1323</v>
       </c>
       <c r="B1326" s="1" t="s">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A1327" s="1" t="s">
         <v>1324</v>
       </c>
       <c r="B1327" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1328" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -17053,7 +17059,7 @@
         <v>1325</v>
       </c>
       <c r="B1328" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1329" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -17061,7 +17067,7 @@
         <v>1326</v>
       </c>
       <c r="B1329" s="1" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="1330" spans="1:3" x14ac:dyDescent="0.25">
@@ -17069,7 +17075,7 @@
         <v>1327</v>
       </c>
       <c r="B1330" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1331" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -17077,7 +17083,7 @@
         <v>1328</v>
       </c>
       <c r="B1331" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1332" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -17085,7 +17091,7 @@
         <v>1329</v>
       </c>
       <c r="B1332" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1333" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -17093,7 +17099,7 @@
         <v>1330</v>
       </c>
       <c r="B1333" s="1" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1334" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -17101,18 +17107,18 @@
         <v>1331</v>
       </c>
       <c r="B1334" s="1" t="s">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1335" s="1" t="s">
         <v>1332</v>
       </c>
       <c r="B1335" s="1" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C1335" s="1" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1336" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -17120,7 +17126,7 @@
         <v>1334</v>
       </c>
       <c r="B1336" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1337" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -17128,7 +17134,7 @@
         <v>1333</v>
       </c>
       <c r="B1337" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1338" spans="1:3" x14ac:dyDescent="0.25">
@@ -17136,7 +17142,7 @@
         <v>1335</v>
       </c>
       <c r="B1338" s="1" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1339" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -17144,7 +17150,7 @@
         <v>1336</v>
       </c>
       <c r="B1339" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1340" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -17152,7 +17158,7 @@
         <v>1337</v>
       </c>
       <c r="B1340" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1341" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -17160,7 +17166,7 @@
         <v>1338</v>
       </c>
       <c r="B1341" s="1" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1342" spans="1:3" x14ac:dyDescent="0.25">
@@ -17168,7 +17174,7 @@
         <v>1339</v>
       </c>
       <c r="B1342" s="1" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1343" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -17176,7 +17182,7 @@
         <v>1340</v>
       </c>
       <c r="B1343" s="1" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1344" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -17184,7 +17190,7 @@
         <v>1341</v>
       </c>
       <c r="B1344" s="1" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1345" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17192,7 +17198,7 @@
         <v>1387</v>
       </c>
       <c r="B1345" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1346" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17200,7 +17206,7 @@
         <v>1388</v>
       </c>
       <c r="B1346" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1347" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17208,7 +17214,7 @@
         <v>1344</v>
       </c>
       <c r="B1347" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1348" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -17216,7 +17222,7 @@
         <v>1343</v>
       </c>
       <c r="B1348" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1349" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17224,7 +17230,7 @@
         <v>1389</v>
       </c>
       <c r="B1349" s="1" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1350" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -17232,7 +17238,7 @@
         <v>1390</v>
       </c>
       <c r="B1350" s="1" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1351" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -17240,7 +17246,7 @@
         <v>1391</v>
       </c>
       <c r="B1351" s="1" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1352" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17248,7 +17254,7 @@
         <v>1392</v>
       </c>
       <c r="B1352" s="1" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1353" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17256,7 +17262,7 @@
         <v>1393</v>
       </c>
       <c r="B1353" s="1" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.25">
@@ -17264,7 +17270,7 @@
         <v>1394</v>
       </c>
       <c r="B1354" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1355" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17272,7 +17278,7 @@
         <v>1342</v>
       </c>
       <c r="B1355" s="1" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1356" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17280,7 +17286,7 @@
         <v>1395</v>
       </c>
       <c r="B1356" s="1" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.25">
@@ -17392,7 +17398,7 @@
         <v>1358</v>
       </c>
       <c r="B1370" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.25">
@@ -17400,7 +17406,7 @@
         <v>1359</v>
       </c>
       <c r="B1371" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1372" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17408,7 +17414,7 @@
         <v>1360</v>
       </c>
       <c r="B1372" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1373" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17416,7 +17422,7 @@
         <v>1361</v>
       </c>
       <c r="B1373" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.25">
@@ -17424,7 +17430,7 @@
         <v>1362</v>
       </c>
       <c r="B1374" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1375" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17432,7 +17438,7 @@
         <v>1363</v>
       </c>
       <c r="B1375" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1376" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17440,7 +17446,7 @@
         <v>1364</v>
       </c>
       <c r="B1376" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.25">
@@ -17448,7 +17454,7 @@
         <v>1365</v>
       </c>
       <c r="B1377" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.25">
@@ -17456,7 +17462,7 @@
         <v>1366</v>
       </c>
       <c r="B1378" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.25">
@@ -17464,7 +17470,7 @@
         <v>1367</v>
       </c>
       <c r="B1379" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.25">
@@ -17736,7 +17742,7 @@
         <v>1412</v>
       </c>
       <c r="B1413" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.25">
@@ -17744,7 +17750,7 @@
         <v>1413</v>
       </c>
       <c r="B1414" s="1" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.25">
@@ -17752,7 +17758,7 @@
         <v>1414</v>
       </c>
       <c r="B1415" s="1" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.25">
@@ -17760,7 +17766,7 @@
         <v>1415</v>
       </c>
       <c r="B1416" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.25">
@@ -17768,7 +17774,7 @@
         <v>1416</v>
       </c>
       <c r="B1417" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1418" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17805,10 +17811,10 @@
     </row>
     <row r="1422" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1422" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B1422" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1423" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17840,7 +17846,7 @@
         <v>1424</v>
       </c>
       <c r="B1426" s="1" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1427" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17848,7 +17854,7 @@
         <v>1425</v>
       </c>
       <c r="B1427" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18416,7 +18422,7 @@
         <v>1496</v>
       </c>
       <c r="B1498" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.25">
@@ -18432,7 +18438,7 @@
         <v>1498</v>
       </c>
       <c r="B1500" s="1" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1501" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -18440,7 +18446,7 @@
         <v>1499</v>
       </c>
       <c r="B1501" s="1" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1502" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -18448,7 +18454,7 @@
         <v>1500</v>
       </c>
       <c r="B1502" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.25">
@@ -18472,7 +18478,7 @@
         <v>1503</v>
       </c>
       <c r="B1505" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1506" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -18480,7 +18486,7 @@
         <v>1504</v>
       </c>
       <c r="B1506" s="1" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.25">
@@ -18504,7 +18510,7 @@
         <v>1507</v>
       </c>
       <c r="B1509" s="1" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1510" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -18512,7 +18518,7 @@
         <v>1508</v>
       </c>
       <c r="B1510" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.25">
@@ -18528,7 +18534,7 @@
         <v>1510</v>
       </c>
       <c r="B1512" s="1" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1513" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -18536,7 +18542,7 @@
         <v>1511</v>
       </c>
       <c r="B1513" s="1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.25">
@@ -18576,7 +18582,7 @@
         <v>1516</v>
       </c>
       <c r="B1518" s="1" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.25">
@@ -18616,7 +18622,7 @@
         <v>1521</v>
       </c>
       <c r="B1523" s="1" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1524" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18624,7 +18630,7 @@
         <v>1522</v>
       </c>
       <c r="B1524" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.25">
@@ -18664,7 +18670,7 @@
         <v>1527</v>
       </c>
       <c r="B1529" s="1" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1530" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18672,7 +18678,7 @@
         <v>1528</v>
       </c>
       <c r="B1530" s="1" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1531" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18680,7 +18686,7 @@
         <v>1529</v>
       </c>
       <c r="B1531" s="1" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1532" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18688,7 +18694,7 @@
         <v>1530</v>
       </c>
       <c r="B1532" s="1" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1533" spans="1:2" x14ac:dyDescent="0.25">
@@ -18720,7 +18726,7 @@
         <v>1534</v>
       </c>
       <c r="B1536" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.25">
@@ -18744,7 +18750,7 @@
         <v>1537</v>
       </c>
       <c r="B1539" s="1" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.25">
@@ -19296,7 +19302,7 @@
         <v>1621</v>
       </c>
       <c r="B1608" s="1" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1609" spans="1:2" x14ac:dyDescent="0.25">
@@ -19485,7 +19491,7 @@
     </row>
     <row r="1632" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1632" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B1632" s="1" t="s">
         <v>1650</v>
@@ -19493,7 +19499,7 @@
     </row>
     <row r="1633" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1633" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B1633" s="1" t="s">
         <v>1632</v>
@@ -19501,7 +19507,7 @@
     </row>
     <row r="1634" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1634" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B1634" s="1" t="s">
         <v>1650</v>
@@ -19509,7 +19515,7 @@
     </row>
     <row r="1635" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1635" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B1635" s="1" t="s">
         <v>1650</v>
@@ -19517,7 +19523,7 @@
     </row>
     <row r="1636" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1636" s="1" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B1636" s="1" t="s">
         <v>1650</v>
@@ -19549,7 +19555,7 @@
     </row>
     <row r="1640" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1640" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B1640" s="1" t="s">
         <v>1647</v>
@@ -19557,7 +19563,7 @@
     </row>
     <row r="1641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1641" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B1641" s="1" t="s">
         <v>1654</v>
@@ -19581,7 +19587,7 @@
     </row>
     <row r="1644" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1644" s="1" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B1644" s="1" t="s">
         <v>1657</v>
@@ -19589,7 +19595,7 @@
     </row>
     <row r="1645" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1645" s="1" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B1645" s="1" t="s">
         <v>1657</v>
@@ -19597,7 +19603,7 @@
     </row>
     <row r="1646" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1646" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B1646" s="1" t="s">
         <v>1657</v>
@@ -19605,7 +19611,7 @@
     </row>
     <row r="1647" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1647" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B1647" s="1" t="s">
         <v>1657</v>
@@ -19613,7 +19619,7 @@
     </row>
     <row r="1648" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1648" s="1" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B1648" s="1" t="s">
         <v>1657</v>
@@ -19621,7 +19627,7 @@
     </row>
     <row r="1649" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1649" s="1" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B1649" s="1" t="s">
         <v>1657</v>
@@ -19629,7 +19635,7 @@
     </row>
     <row r="1650" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1650" s="1" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B1650" s="1" t="s">
         <v>1657</v>
@@ -19688,7 +19694,7 @@
         <v>1670</v>
       </c>
       <c r="B1657" s="1" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1658" spans="1:2" x14ac:dyDescent="0.25">
@@ -19712,7 +19718,7 @@
         <v>1678</v>
       </c>
       <c r="B1660" s="1" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1661" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19728,7 +19734,7 @@
         <v>1681</v>
       </c>
       <c r="B1662" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1663" spans="1:2" x14ac:dyDescent="0.25">
@@ -19763,28 +19769,28 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="1667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1667" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1667" s="1" t="s">
         <v>1688</v>
       </c>
       <c r="B1667" s="1" t="s">
-        <v>1689</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1668" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1668" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B1668" s="1" t="s">
         <v>1690</v>
-      </c>
-      <c r="B1668" s="1" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="1669" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1669" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B1669" s="1" t="s">
         <v>1692</v>
-      </c>
-      <c r="B1669" s="1" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="1670" spans="1:2" x14ac:dyDescent="0.25">
@@ -19792,943 +19798,943 @@
         <v>1406</v>
       </c>
       <c r="B1670" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1671" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B1671" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1672" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1672" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B1672" s="1" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1673" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B1673" s="1" t="s">
         <v>1698</v>
-      </c>
-      <c r="B1673" s="1" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="1674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1674" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B1674" s="1" t="s">
         <v>1700</v>
-      </c>
-      <c r="B1674" s="1" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="1675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1675" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B1675" s="1" t="s">
         <v>1702</v>
-      </c>
-      <c r="B1675" s="1" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="1676" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1676" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B1676" s="1" t="s">
         <v>1704</v>
-      </c>
-      <c r="B1676" s="1" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="1677" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1677" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B1677" s="1" t="s">
         <v>1706</v>
-      </c>
-      <c r="B1677" s="1" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="1678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1678" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B1678" s="1" t="s">
         <v>1708</v>
-      </c>
-      <c r="B1678" s="1" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="1679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1679" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B1679" s="1" t="s">
         <v>1711</v>
-      </c>
-      <c r="B1679" s="1" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="1680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1680" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B1680" s="1" t="s">
         <v>1713</v>
-      </c>
-      <c r="B1680" s="1" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="1681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1681" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B1681" s="1" t="s">
         <v>1715</v>
-      </c>
-      <c r="B1681" s="1" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="1682" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1682" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B1682" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1683" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1683" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B1683" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1684" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B1684" s="1" t="s">
         <v>1722</v>
-      </c>
-      <c r="B1684" s="1" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="1685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1685" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B1685" s="1" t="s">
         <v>1725</v>
-      </c>
-      <c r="B1685" s="1" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="1686" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1686" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B1686" s="1" t="s">
         <v>1727</v>
-      </c>
-      <c r="B1686" s="1" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="1687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1687" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B1687" s="1" t="s">
         <v>1729</v>
-      </c>
-      <c r="B1687" s="1" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="1688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1688" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B1688" s="1" t="s">
         <v>1733</v>
-      </c>
-      <c r="B1688" s="1" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="1689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1689" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B1689" s="1" t="s">
         <v>1735</v>
-      </c>
-      <c r="B1689" s="1" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="1690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1690" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B1690" s="1" t="s">
         <v>1738</v>
-      </c>
-      <c r="B1690" s="1" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="1691" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1691" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B1691" s="1" t="s">
         <v>1740</v>
-      </c>
-      <c r="B1691" s="1" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="1692" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1692" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B1692" s="1" t="s">
         <v>1745</v>
-      </c>
-      <c r="B1692" s="1" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="1693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1693" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B1693" s="1" t="s">
         <v>1748</v>
-      </c>
-      <c r="B1693" s="1" t="s">
-        <v>1749</v>
       </c>
     </row>
     <row r="1694" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1694" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1694" s="1" t="s">
         <v>1750</v>
-      </c>
-      <c r="B1694" s="1" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="1695" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1695" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1695" s="1" t="s">
         <v>1752</v>
-      </c>
-      <c r="B1695" s="1" t="s">
-        <v>1753</v>
       </c>
     </row>
     <row r="1696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1696" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B1696" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1697" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1697" s="1" t="s">
         <v>1755</v>
-      </c>
-      <c r="B1697" s="1" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="1698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1698" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B1698" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1699" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1699" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B1699" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1700" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1700" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B1700" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1701" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1701" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B1701" s="1" t="s">
         <v>1763</v>
-      </c>
-      <c r="B1701" s="1" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="1702" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1702" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B1702" s="1" t="s">
         <v>1765</v>
-      </c>
-      <c r="B1702" s="1" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="1703" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1703" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1703" s="1" t="s">
         <v>1767</v>
-      </c>
-      <c r="B1703" s="1" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="1704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1704" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1704" s="1" t="s">
         <v>1769</v>
-      </c>
-      <c r="B1704" s="1" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="1705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1705" s="1" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B1705" s="1" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1706" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1706" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B1706" s="1" t="s">
         <v>1772</v>
-      </c>
-      <c r="B1706" s="1" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="1707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1707" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1707" s="1" t="s">
         <v>1774</v>
-      </c>
-      <c r="B1707" s="1" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="1708" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1708" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1708" s="1" t="s">
         <v>1776</v>
-      </c>
-      <c r="B1708" s="1" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="1709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1709" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B1709" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1710" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1710" s="1" t="s">
         <v>1779</v>
-      </c>
-      <c r="B1710" s="1" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="1711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1711" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B1711" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1712" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1712" s="1" t="s">
         <v>1782</v>
-      </c>
-      <c r="B1712" s="1" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="1713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1713" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1713" s="1" t="s">
         <v>1784</v>
-      </c>
-      <c r="B1713" s="1" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="1714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1714" s="1" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B1714" s="1" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1715" s="1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B1715" s="1" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1716" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1716" s="1" t="s">
         <v>1791</v>
-      </c>
-      <c r="B1716" s="1" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="1717" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1717" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1717" s="1" t="s">
         <v>1793</v>
-      </c>
-      <c r="B1717" s="1" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="1718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1718" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B1718" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1719" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B1719" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1720" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B1720" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1721" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B1721" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1722" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1722" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1722" s="1" t="s">
         <v>1801</v>
-      </c>
-      <c r="B1722" s="1" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="1723" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1723" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1723" s="1" t="s">
         <v>1803</v>
-      </c>
-      <c r="B1723" s="1" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="1724" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1724" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B1724" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1725" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1725" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B1725" s="1" t="s">
         <v>1806</v>
-      </c>
-      <c r="B1725" s="1" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="1726" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1726" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B1726" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1727" s="1" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B1727" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1728" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B1728" s="1" t="s">
         <v>1810</v>
-      </c>
-      <c r="B1728" s="1" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="1729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1729" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B1729" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1730" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1730" s="1" t="s">
         <v>1813</v>
-      </c>
-      <c r="B1730" s="1" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="1731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1731" s="1" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B1731" s="1" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1732" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1732" s="1" t="s">
         <v>1816</v>
-      </c>
-      <c r="B1732" s="1" t="s">
-        <v>1817</v>
       </c>
     </row>
     <row r="1733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1733" s="1" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B1733" s="1" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1734" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1734" s="1" t="s">
         <v>1819</v>
-      </c>
-      <c r="B1734" s="1" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="1735" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1735" s="1" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B1735" s="1" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1736" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1736" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B1736" s="1" t="s">
         <v>1822</v>
-      </c>
-      <c r="B1736" s="1" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="1737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1737" s="1" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B1737" s="1" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1738" s="1" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B1738" s="1" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1739" s="1" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B1739" s="1" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1740" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1740" s="1" t="s">
         <v>1827</v>
-      </c>
-      <c r="B1740" s="1" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="1741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1741" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B1741" s="1" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1742" s="1" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B1742" s="1" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1743" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1743" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B1743" s="1" t="s">
         <v>1833</v>
-      </c>
-      <c r="B1743" s="1" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="1744" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1744" s="1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B1744" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1745" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1745" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B1745" s="1" t="s">
         <v>1836</v>
-      </c>
-      <c r="B1745" s="1" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="1746" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1746" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B1746" s="1" t="s">
         <v>1838</v>
-      </c>
-      <c r="B1746" s="1" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="1747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1747" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1747" s="1" t="s">
         <v>1840</v>
-      </c>
-      <c r="B1747" s="1" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="1748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1748" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B1748" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1749" s="1" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B1749" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1750" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1750" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1750" s="1" t="s">
         <v>1846</v>
-      </c>
-      <c r="B1750" s="1" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="1751" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1751" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1751" s="1" t="s">
         <v>1849</v>
-      </c>
-      <c r="B1751" s="1" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="1752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1752" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B1752" s="1" t="s">
         <v>1851</v>
-      </c>
-      <c r="B1752" s="1" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="1753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1753" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B1753" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1754" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B1754" s="1" t="s">
         <v>1854</v>
-      </c>
-      <c r="B1754" s="1" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="1755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1755" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B1755" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1756" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1756" s="1" t="s">
         <v>1857</v>
-      </c>
-      <c r="B1756" s="1" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="1757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1757" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1757" s="1" t="s">
         <v>1859</v>
-      </c>
-      <c r="B1757" s="1" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="1758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1758" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B1758" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1759" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1759" s="1" t="s">
         <v>1862</v>
-      </c>
-      <c r="B1759" s="1" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="1760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1760" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B1760" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1761" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1761" s="1" t="s">
         <v>1865</v>
-      </c>
-      <c r="B1761" s="1" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="1762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1762" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B1762" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1763" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1763" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1763" s="1" t="s">
         <v>1871</v>
-      </c>
-      <c r="B1763" s="1" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="1764" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1764" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1764" s="1" t="s">
         <v>1873</v>
-      </c>
-      <c r="B1764" s="1" t="s">
-        <v>1874</v>
       </c>
     </row>
     <row r="1765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1765" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1765" s="1" t="s">
         <v>1875</v>
-      </c>
-      <c r="B1765" s="1" t="s">
-        <v>1876</v>
       </c>
     </row>
     <row r="1766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1766" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B1766" s="1" t="s">
         <v>1877</v>
-      </c>
-      <c r="B1766" s="1" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="1767" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1767" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B1767" s="1" t="s">
         <v>1879</v>
-      </c>
-      <c r="B1767" s="1" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="1768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1768" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1768" s="1" t="s">
         <v>1881</v>
-      </c>
-      <c r="B1768" s="1" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="1769" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1769" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1769" s="1" t="s">
         <v>1883</v>
-      </c>
-      <c r="B1769" s="1" t="s">
-        <v>1884</v>
       </c>
     </row>
     <row r="1770" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1770" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B1770" s="1" t="s">
         <v>1885</v>
-      </c>
-      <c r="B1770" s="1" t="s">
-        <v>1886</v>
       </c>
     </row>
     <row r="1771" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1771" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B1771" s="1" t="s">
         <v>1887</v>
-      </c>
-      <c r="B1771" s="1" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="1772" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1772" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1772" s="1" t="s">
         <v>1889</v>
-      </c>
-      <c r="B1772" s="1" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="1773" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1773" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1773" s="1" t="s">
         <v>1892</v>
-      </c>
-      <c r="B1773" s="1" t="s">
-        <v>1893</v>
       </c>
     </row>
     <row r="1774" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1774" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B1774" s="1" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1775" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1775" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B1775" s="1" t="s">
         <v>1895</v>
-      </c>
-      <c r="B1775" s="1" t="s">
-        <v>1896</v>
       </c>
     </row>
     <row r="1776" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1776" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B1776" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1777" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1777" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B1777" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1778" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1778" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B1778" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1779" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1779" s="1" t="s">
         <v>1901</v>
-      </c>
-      <c r="B1779" s="1" t="s">
-        <v>1902</v>
       </c>
     </row>
     <row r="1780" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1780" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1780" s="1" t="s">
         <v>1903</v>
-      </c>
-      <c r="B1780" s="1" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="1781" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1781" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B1781" s="1" t="s">
         <v>1906</v>
-      </c>
-      <c r="B1781" s="1" t="s">
-        <v>1907</v>
       </c>
     </row>
     <row r="1782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1782" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B1782" s="1" t="s">
         <v>1908</v>
-      </c>
-      <c r="B1782" s="1" t="s">
-        <v>1909</v>
       </c>
     </row>
     <row r="1783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1783" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B1783" s="1" t="s">
         <v>1910</v>
-      </c>
-      <c r="B1783" s="1" t="s">
-        <v>1911</v>
       </c>
     </row>
     <row r="1784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1784" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B1784" s="1" t="s">
         <v>1912</v>
-      </c>
-      <c r="B1784" s="1" t="s">
-        <v>1913</v>
       </c>
     </row>
     <row r="1785" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1785" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B1785" s="1" t="s">
         <v>1915</v>
-      </c>
-      <c r="B1785" s="1" t="s">
-        <v>1916</v>
       </c>
     </row>
     <row r="1786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1786" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1786" s="1" t="s">
         <v>1919</v>
-      </c>
-      <c r="B1786" s="1" t="s">
-        <v>1920</v>
       </c>
     </row>
     <row r="1787" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1787" s="1" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B1787" s="1" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1788" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -20736,7 +20742,7 @@
         <v>1614</v>
       </c>
       <c r="B1788" s="1" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C1788" s="1"/>
       <c r="D1788" s="1"/>
@@ -20748,7 +20754,7 @@
         <v>1612</v>
       </c>
       <c r="B1789" s="1" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C1789" s="1"/>
       <c r="D1789" s="1"/>
@@ -20773,7 +20779,7 @@
         <v>1618</v>
       </c>
       <c r="B1791" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C1791" s="1"/>
       <c r="D1791" s="1"/>
@@ -20785,7 +20791,7 @@
         <v>1607</v>
       </c>
       <c r="B1792" s="1" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C1792" s="1"/>
       <c r="D1792" s="1"/>
@@ -20798,19 +20804,19 @@
         <v>1606</v>
       </c>
       <c r="B1793" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C1793" s="1"/>
       <c r="D1793" s="1"/>
       <c r="E1793" s="1"/>
       <c r="F1793" s="1"/>
     </row>
-    <row r="1794" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1794" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1794" s="1" t="s">
         <v>1610</v>
       </c>
       <c r="B1794" s="1" t="s">
-        <v>1610</v>
+        <v>2018</v>
       </c>
       <c r="C1794" s="1"/>
       <c r="D1794" s="1"/>
@@ -20822,7 +20828,7 @@
         <v>1608</v>
       </c>
       <c r="B1795" s="1" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C1795" s="1"/>
       <c r="D1795" s="1"/>
@@ -20834,7 +20840,7 @@
         <v>1615</v>
       </c>
       <c r="B1796" s="1" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C1796" s="1"/>
       <c r="D1796" s="1"/>
@@ -20846,7 +20852,7 @@
         <v>1613</v>
       </c>
       <c r="B1797" s="1" t="s">
-        <v>1613</v>
+        <v>2017</v>
       </c>
       <c r="C1797" s="1"/>
       <c r="D1797" s="1"/>
@@ -20894,10 +20900,10 @@
     </row>
     <row r="1801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1801" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B1801" s="1" t="s">
         <v>2004</v>
-      </c>
-      <c r="B1801" s="1" t="s">
-        <v>2005</v>
       </c>
       <c r="C1801" s="1"/>
       <c r="D1801" s="1"/>
@@ -20906,10 +20912,10 @@
     </row>
     <row r="1802" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1802" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B1802" s="1" t="s">
         <v>2009</v>
-      </c>
-      <c r="B1802" s="1" t="s">
-        <v>2010</v>
       </c>
     </row>
   </sheetData>

--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F8AC3D-4BCD-495C-B4D0-DF26044D72A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4657BA86-FD12-4765-8CFB-C1A5AB78B158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="1977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="1982">
   <si>
     <t>Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</t>
   </si>
@@ -5964,6 +5964,21 @@
   </si>
   <si>
     <t>Bệnh tật đa dâm</t>
+  </si>
+  <si>
+    <t>Vị trí cung Tật Ách so với ngũ hành Mệnh: Bình thường</t>
+  </si>
+  <si>
+    <t>Vị trí cung Tật Ách so với ngũ hành Mệnh: Tuyệt địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Tật Ách so với ngũ hành Mệnh: Sinh địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Tật Ách so với ngũ hành Mệnh: Vượng địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Tật Ách so với ngũ hành Mệnh: Bại địa</t>
   </si>
 </sst>
 </file>
@@ -6014,7 +6029,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6302,10 +6337,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:G1724"/>
+  <dimension ref="A2:G1729"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView tabSelected="1" topLeftCell="A1333" workbookViewId="0">
+      <selection activeCell="B1729" sqref="A1725:B1729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20178,6 +20213,46 @@
         <v>1961</v>
       </c>
     </row>
+    <row r="1725" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1725" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B1725" s="1" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1726" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1726" s="1" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1727" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1727" s="1" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1728" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1728" s="1" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1729" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B1729" s="1" t="s">
+        <v>1981</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:F1724" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
     <filterColumn colId="0">
@@ -20187,8 +20262,12 @@
     </filterColumn>
   </autoFilter>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A1:D1724 A1730:D1048576 C1725:D1729">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1725:B1729">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4EB55F-FBD9-483E-90AC-6C7ABADF2269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADE831A-12CB-4E2C-9E0B-3B92F9093E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="1989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="1993">
   <si>
     <t>Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</t>
   </si>
@@ -6000,6 +6000,18 @@
   </si>
   <si>
     <t>Cung tật ách là cung vị khí số của cung điền trạch, nên người cung tật ách có Hóa Lộc sẽ muốn mua bất động sản, tùy theo tính chất của sao hóa, còn có khả năng giấu chuyện mình có nhiều bất động sản.</t>
+  </si>
+  <si>
+    <t>Cung tật ách là đại biểu cho nơi sâu thẳm nhất trong tâm hồn, có Hóa Quyền là có tượng biến động nhanh chóng. Vì vậy, trường hợp Hóa Quyền ở cung tật ách là chủ về tư tưởng của mệnh tạo chuyển biến rất nhanh, phản ứng cũng nhanh, IQ của họ khá cao, là người giỏi vận dụng đầu óc để suy nghĩ tính toán. Cũng vì cung tật ách có Hóa Quyền, nên người này dễ có hiện tượng dùng đầu óc quá độ, tâm trạng của mệnh tạo rất dễ hưng phấn, và có lối suy nghĩ tính toán theo kiểu nhảy vọt. Cung tật ách là cung vị đại biểu cho chỗ thâm sâu nhất ở bên trong tâm hồn, nó còn có hàm nghĩa là "kho thu chứa", là nơi tàng chứa các loại tri thức, thông tin; có Hóa Quyền, thì những tri thức, thông tin có trong đầu sẽ thường được đổi mới, người này cũng rất muốn hấp thu tri thức mới, nhưng có vận dụng được chúng một cách đầy đủ hay không, thì phải xem cung quan lộc tiếp nhận có hữu hiệu hay không. Cung tật ách đã là "kho thu chứa", trong trường hợp có Hóa Quyền, thì bản thân mệnh tạo sẽ rơi vào trạng thái mất quyền, mất lực hành động và tính thực hiện, do đó thường không tưởng, mà thiếu thực tế, khó bắt đầu hành động, khá thích hợp với những nghề nghiệp nặng tính suy nghĩ và đưa ra ý kiến. Tư tưởng hoạt động với tốc độ nhanh, mà thiếu hành động, có lúc vì cách diễn đạt nhảy vọt, hoặc không diễn tả được cách suy nghĩ của mình, nên dễ bị tình trạng giống như trong và ngoài bất nhất, thân tâm mất quân bình, tâm trạng cũng dễ ưu uất. Vì vậy, trong trường hợp cung tật ách có Hóa Quyền tác động qua lại với các cung mệnh, phúc, quan, điền, hoặc tổ hợp sao ở hai cung phúc đức và quan lộc không được tốt, thì mệnh tạo sẽ dễ mắc bệnh tinh thần, vì cung tật ách tượng trưng cho những vấn đề có nguyên nhân tâm lí.Thêm vào đó, nếu ở cung điền trạch có hung tinh tụ tập, lúc xem về bệnh chứng thì có nguy cơ khá cao mắc các bệnh như rối loạn chuyển hóa, tim mạch, v.v... Ngoài ra, Hóa Quyền là hỏa, lúc lấy Hóa Quyền để luận về bệnh, phần nhiều là các bệnh liên quan đến chứng viêm, sốt cao.</t>
+  </si>
+  <si>
+    <t>Xem xét cung tật ách ở góc độ là cung vị tử nữ của cung phu thê, cung tật ách có Hóa Quyền, là chủ về người phối ngẫu có nhu cầu cao về chuyện riêng tư vợ chồng, trước khi kết hôn có thể đã từng có một tình yêu say đắm. Trong một số tình huống phi hóa, căn cứ cung tật ách có Hóa Quyền có thể luận về vận đào hoa của người phối ngẫu. Vì cung tật ách còn là cung vị phúc đức của cung nô bộc, cho nên, nếu bản thân mệnh tạo có hiện tượng đào hoa, thì có thể xem xét căn cứ cung tật ách có Hóa Quyền để luận về tình hình gặp gỡ đào hoa của mệnh tạo, rất có thể là tình yêu tay ba.</t>
+  </si>
+  <si>
+    <t>Cung tật ách còn là cung vị khí số của cung điền trạch, trong trường hợp cung tật ách có Hóa Quyền, là nơi thâm sâu nhất trong nội tâm ngầm có khát vọng, thúc giục mệnh tạo muốn có bất động sản; Hóa Quyền cũng chủ về có nhiều bất động sản, và giữ được bất động sản; đồng thời vì Hóa Quyền còn có hàm nghĩa là "biến đổi", nên cũng có tượng mau chóng hoán chuyển bất động sản. Nếu lấy cung điền trạch để xem về môi trường làm việc, thì mệnh tạo làm việc ở công ti hay tập đoàn khá mạnh, có lực cạnh tranh, và mệnh tạo thường phải ứng phó với những biến động trong môi trường làm việc.</t>
+  </si>
+  <si>
+    <t>ung tật ách còn đại biểu cho cha, trường hợp có Hóa Quyền, thường thường có hàm ý là cha có thể đè ép, uy nghiêm, thường có nghề chuyên môn đặc biệt. Ngoài ra, Hóa Quyền ở cung vị thiên di của cung phụ mẫu, cha có thể vì bận rộn công việc mà thường không có ở nhà, dẫn đến tình trạng có sự ngăn cách với mệnh tạo.</t>
   </si>
 </sst>
 </file>
@@ -6359,8 +6371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A2:I1729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1259" workbookViewId="0">
-      <selection activeCell="D1264" sqref="D1264"/>
+    <sheetView tabSelected="1" topLeftCell="A1272" workbookViewId="0">
+      <selection activeCell="F1272" sqref="F1272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16536,7 +16548,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="1271" spans="1:9" ht="405" x14ac:dyDescent="0.25">
+    <row r="1271" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A1271" s="1" t="s">
         <v>1268</v>
       </c>
@@ -16565,12 +16577,24 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="1272" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="1272" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1272" s="1" t="s">
         <v>1269</v>
       </c>
       <c r="B1272" s="1" t="s">
         <v>1860</v>
+      </c>
+      <c r="C1272" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D1272" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E1272" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F1272" s="1" t="s">
+        <v>1992</v>
       </c>
     </row>
     <row r="1273" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -20302,7 +20326,7 @@
   </sheetData>
   <autoFilter ref="A2:F1729" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A1:D1724 A1730:D1048576 C1725:D1729 E1271:I1271">
+  <conditionalFormatting sqref="A1:D1724 A1730:D1048576 C1725:D1729 E1271:I1271 E1272:F1272">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1725:B1729">

--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADE831A-12CB-4E2C-9E0B-3B92F9093E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF14EDA-47DA-4D0D-B058-511702A842AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="1993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3479" uniqueCount="1999">
   <si>
     <t>Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</t>
   </si>
@@ -6012,6 +6012,24 @@
   </si>
   <si>
     <t>ung tật ách còn đại biểu cho cha, trường hợp có Hóa Quyền, thường thường có hàm ý là cha có thể đè ép, uy nghiêm, thường có nghề chuyên môn đặc biệt. Ngoài ra, Hóa Quyền ở cung vị thiên di của cung phụ mẫu, cha có thể vì bận rộn công việc mà thường không có ở nhà, dẫn đến tình trạng có sự ngăn cách với mệnh tạo.</t>
+  </si>
+  <si>
+    <t>Cung tật ách đại biểu cho đầu óc; trường hợp Hóa Khoa ở cung tật ách, mệnh tạo là người thông minh, IQ cũng khá cao. Nhưng lực tác động của Hóa Khoa là tuân theo quy tắc, tuân theo tư duy logic, cho nên mệnh tạo không phải là nhân vật kì tài, xuất chúng. Sao Hóa Khoa ở cung tật ách, ở một mức độ nhất định nào đó, mệnh tạo có thiên phú về học hành, thông thường công phu hàm dưỡng kiến thức tốt hơn trường hợp sao Hóa Khoa tọa thủ cung mệnh. Vì Hóa Khoa chủ về bình hòa, vững chắc; trường hợp Hóa Khoa ở cung tật ách là đại biểu cho nơi sâu thẳm nhất trong tâm hồn, là chủ về tâm trạng mừng giận buồn vui của mệnh tạo có biên độ không quá lớn, ít nhất về biểu hiện là như vậy; cũng không dễ dàng nổi giận hay vui mừng quá đáng, so với người bình thường là thiên nặng lí tính. Nếu trong cung tật ách thấy Hóa Khoa, là nơi sâu thẳm nhất trong tâm hồn không chứa điều gì dơ bẩn, cách suy nghĩ không hợp trào lưu, thiếu thiết thực. Cũng vì lực tác động của Hóa Khoa là hợp lí hóa nên mệnh tạo làm việc có lớp lang rõ ràng, là nhân vật thuộc loại chân quân tử.</t>
+  </si>
+  <si>
+    <t>Cung tật ách tương tự như "nhà kho lớn" chứa đựng sự vật, do đó nếu mạng Hóa Khoa đặt vào đó thì bình thường mệnh tạo khó thấy được lực tác động của Hóa Khoa, vì vậy khó phát huy một cách hữu hiệu tri thức của họ. Nhưng rốt cuộc Hóa Khoa vẫn là chủ về "trợ lực", lúc cung mệnh của đại vận trùng điệp với cung tật ách của nguyên cục, hoặc tử hóa [đại vận] khơi động Hóa Khoa [năm sinh], thường thường là lúc mệnh tạo công thành danh toại. Cũng cùng một lí, cung tật ách tuy là "ngã cung", nhưng Hóa Khoa ở cung chủ về "tàng chứa", cho nên, nếu gặp chuyện sẽ khó thấy quý nhân và trợ lực, cách hóa giải hung ách là ở trí tuệ của mệnh tạo; người này hành động theo lí tính (mệnh tạo có lối suy nghĩ rất logic, nhưng thành tựu về học vấn lại không được tốt lắm).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hóa Khoa không chủ về mau lẹ, không yên định, bất an, cho nên ở đây, lúc lực tác động của Hóa Khoa được khơi động, sẽ không giống như Hóa Lộc hay Hóa Quyền ở cung tật ách là làm thay đổi nhanh chóng, mà cuộc đời của mệnh tạo sẽ ngầm chuyển biến, từ từ thay đổi. </t>
+  </si>
+  <si>
+    <t>Luận về thể chất, vì cung tật ách còn chủ về toàn bộ cơ thể, nên trường hợp có Hóa Khoa có thể luận giải: sức khỏe ít khi có vấn đề. Cũng trong điều kiện này, mệnh tạo có vóc dáng không quá gầy hoặc quá mập, thân hình vừa phải. Cung tật ách là cung vị khí số (cung vị quan lộc) của cung điền trạch, người có Hóa Khoa ở cung tật ách, thường thường sau khi có bất động sản, Hóa Khoa sẽ phát huy tác động về phương diện bất động sản, nên phần lớn họ đều giữ được bất động sản, mà phẩm chất bất động sản và quyền sở hữu cũng ít có vấn đề.</t>
+  </si>
+  <si>
+    <t>Cung tật ách trong mệnh bàn là cung vị đại biểu cho cha, có Hóa Khoa, là cha của mệnh tạo tương đối có tu dưỡng, có học vấn hơn mệnh tạo. Xét ở góc độ bản thân mệnh tạo, họ là người thông tình đạt lí, thường chịu ảnh hưởng của cha rất nhiều.</t>
+  </si>
+  <si>
+    <t>Cung tật ách là cung vị tử nữ của người phối ngẫu, có Hóa Khoa là chủ về người phối ngẫu trước khi kết hôn đã từng có bạn tri kỉ khác giới, nhưng vì lực tác động của Hóa Khoa là tuân thủ quy củ, vì vậy đoạn tình cảm này phần nhiều là phát ở "chữ tình" mà dừng lại ở "chữ lễ", mà không có quan hệ nam nữ "thân mật" trước hôn nhân.</t>
   </si>
 </sst>
 </file>
@@ -6371,15 +6389,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A2:I1729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1272" workbookViewId="0">
-      <selection activeCell="F1272" sqref="F1272"/>
+    <sheetView tabSelected="1" topLeftCell="C1273" workbookViewId="0">
+      <selection activeCell="G1273" sqref="G1273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="49" style="1" customWidth="1"/>
     <col min="3" max="3" width="59.42578125" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" customWidth="1"/>
     <col min="5" max="5" width="28.140625" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
@@ -16597,12 +16615,30 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="1273" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="1273" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A1273" s="1" t="s">
         <v>1270</v>
       </c>
       <c r="B1273" s="1" t="s">
         <v>1861</v>
+      </c>
+      <c r="C1273" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D1273" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E1273" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F1273" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G1273" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H1273" s="1" t="s">
+        <v>1998</v>
       </c>
     </row>
     <row r="1274" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -20326,7 +20362,7 @@
   </sheetData>
   <autoFilter ref="A2:F1729" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A1:D1724 A1730:D1048576 C1725:D1729 E1271:I1271 E1272:F1272">
+  <conditionalFormatting sqref="A1:D1724 A1730:D1048576 C1725:D1729 E1271:I1271 E1272:F1273 G1273:H1273">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1725:B1729">

--- a/LuanTatAch.xlsx
+++ b/LuanTatAch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF14EDA-47DA-4D0D-B058-511702A842AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFF41FC-2034-4C52-A1A6-EC7852076101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3479" uniqueCount="1999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="2007">
   <si>
     <t>Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</t>
   </si>
@@ -6030,6 +6030,30 @@
   </si>
   <si>
     <t>Cung tật ách là cung vị tử nữ của người phối ngẫu, có Hóa Khoa là chủ về người phối ngẫu trước khi kết hôn đã từng có bạn tri kỉ khác giới, nhưng vì lực tác động của Hóa Khoa là tuân thủ quy củ, vì vậy đoạn tình cảm này phần nhiều là phát ở "chữ tình" mà dừng lại ở "chữ lễ", mà không có quan hệ nam nữ "thân mật" trước hôn nhân.</t>
+  </si>
+  <si>
+    <t>Cung tật ách là nơi tàng chứa tiềm thức, do là nơi sâu kín ít được dọn dẹp sạch sẽ, nên trường hợp có Hóa Kị sẽ dễ chứa nhiều chất dơ bẩn, đương nhiên cũng có nhiều tri thức trong đó, vì ít được chỉnh lí nên trong đầu đầy ắp những kiến văn nhưng khó vận dụng, thường thấy đầu óc bị rối loạn. Do Hóa Kị là hậu quả của Hóa Lộc, Hóa Khoa và Hóa Quyền; nên trường hợp Hóa Kị ở cung tật ách là trong thế giới tinh thần có động thái thu vào, chịu đựng, vì vậy mệnh tạo có tinh thần ẩn nhẫn, sức chịu đựng khá mạnh, thường nuốt nhịn buồn phiền hoặc thua thiệt. Nhưng trong thực tế, vì Hóa Kị ở bên trong tâm hồn, nên tâm tư của mệnh tạo thuộc loại nóng nảy, không yên định. Vì tâm tư khó yên định lại phải chịu đựng áp lực, nên mệnh tạo thường thường khó vui về thật sự. Cũng do Hóa Kị là hậu quả của Hóa Lộc, Hóa Khoa và Hóa Quyền, nên cũng chủ về thu giấu mọi ủy khuất, niềm vui, và nỗi buôn trong cung tật ách. Mệnh chủ là mẫu người điển hình của trường hợp nuốt nước mắt mà phải mỉm cười.</t>
+  </si>
+  <si>
+    <t>Cung tật ách đóng vai trò then chốt trong việc khơi động thể chất, sức khỏe. Xem xét tù cung tật ách có thể biết được bệnh tật có nảy sinh hay không. Cung tật ách có đặc tính chứa ở bên trong, còn Hóa Kị có tác dụng gây phiền phức, rắc rối rất khó trị; trường hợp cung tật ách có Hóa Kị là dễ mắc bệnh mạn tính, hoặc bệnh tật không rõ ràng, có nguy cơ cao mắc bệnh ung thư. Do cung tật ách là cung tiềm thức, có Hóa Kị, là ý tượng: tiềm thức của mệnh tạo không được sáng sủa, nội tâm cũng thường u ám, đồng thời có một số bí mật không thể cho người khác biết. Mệnh tạo có thể mắc bệnh tinh thần.</t>
+  </si>
+  <si>
+    <t>Vì Hóa Kị ở cung tật ách là ở cung vị tổng hòa của "ngã cung", so sánh với các "tha cung", vì vậy, mệnh tạo dễ nặng mặc cảm tự ti, hành vi có thiên hướng bảo thù. Vì lòng tụ trọng khiến mệnh tạo khó biểu hiện tình cảm của mình, có lúc hơi thần kinh chất, hay nghi ngờ người khác. Cung tật ách là cung vị tử nữ của cung phu thê, có Hóa Kị, thường thường chủ về trước khi kết hôn, người phối ngẫu đã từng thất bại trong tình yêu, mà còn là mối tình khắc cốt ghi tâm; thông thường là mệnh tạo không biết câu chuyện quá khứ này, nếu người phối ngẫu không cẩn thận, để mệnh tạo biết được, có thể họ sẽ phản ứng rất kịch liệt.</t>
+  </si>
+  <si>
+    <t>Cung tật ách là vị trí của cha, có Hóa Kị, là ý tượng: cha có câu chuyện tình cảm khó thổ lộ với ai, nhưng vì sẽ tạo ra ám ảnh ở cung phụ mẫu, nên chủ về chuyện tình này không được hòa hợp. Phân tích tổng hợp, là ý tượng: mệnh tạo đối với cha vừa thương vừa hận, tình cảm vừa thân thiết vừa xa lạ.</t>
+  </si>
+  <si>
+    <t>Cung tật ách là cung vị khí số của cung điền trạch, có Hóa Kị là ý tượng: mệnh tạo khó giữ điền trạch, đến đại vận Hóa Kị bị xung kích, thường thường phải bán đi; hoặc có bất động sản nhưng giá trị không cao vì địa điểm không tốt, hoặc chất lượng thi công và kết cấu không được tốt.</t>
+  </si>
+  <si>
+    <t>Cung tật ách là cung vị thiên di của cung phụ mẫu, có Hóa Kị, là ngầm báo tình cảm giữa cha mẹ không được tốt đẹp. Hơn nữa, vì cung tật ách là cung vị biểu hiện của mẹ (cung huynh đệ), bản thân cung tật ách là đại biểu cho cha, còn là cung vị thiên di của hai người, là ý tượng: tổ hợp tình cảm này không phải là một đối một, hoặc lúc trẻ, tình cảm của cha mẹ rất phức tạp.</t>
+  </si>
+  <si>
+    <t>Cung tật ách là cung vị tài bạch của cung huynh đệ, có Hóa Kị, là ý tượng: có anh em rất thương tiền, nhưng không nhất định là giữ được tiền, còn phải xem vị trí Lộc Kị có đúng hay không. Nếu trong cung còn có hung tình, là ý tượng: tình hình tài chính của anh em không tốt hoặc không rõ ràng, công việc không thuận lợi, cần phải có người khác trợ giúp.</t>
+  </si>
+  <si>
+    <t>Lúc cung tật ách chuyển động, trùng điệp với cung huynh đệ hay cung phụ mẫu, có Hóa Kị, là ý tượng: thể chất của mệnh tạo có vấn đề, cũng có thể do di truyền không tốt. Cung tật ách còn là cung vị thiên di của cung phụ mẫu, cũng đại biểu cho cha, theo nguyên tắc di truyền, có lúc sức khỏe của cha cũng kém, muốn biết rõ chi tiết, phải xem đại vận.</t>
   </si>
 </sst>
 </file>
@@ -6387,10 +6411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:I1729"/>
+  <dimension ref="A2:J1729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1273" workbookViewId="0">
-      <selection activeCell="G1273" sqref="G1273"/>
+    <sheetView tabSelected="1" topLeftCell="A1274" workbookViewId="0">
+      <selection activeCell="H1274" sqref="H1274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6398,11 +6422,12 @@
     <col min="1" max="2" width="49" style="1" customWidth="1"/>
     <col min="3" max="3" width="59.42578125" customWidth="1"/>
     <col min="4" max="4" width="58.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="52.5703125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16456,7 +16481,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="1258" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1258" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1258" s="1" t="s">
         <v>1255</v>
       </c>
@@ -16518,7 +16543,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="1265" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="1265" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A1265" s="1" t="s">
         <v>1262</v>
       </c>
@@ -16526,7 +16551,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="1266" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="1266" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A1266" s="1" t="s">
         <v>1263</v>
       </c>
@@ -16534,7 +16559,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="1267" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1267" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1267" s="1" t="s">
         <v>1264</v>
       </c>
@@ -16542,7 +16567,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="1268" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="1268" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A1268" s="1" t="s">
         <v>1265</v>
       </c>
@@ -16550,7 +16575,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="1269" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1269" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1269" s="1" t="s">
         <v>1266</v>
       </c>
@@ -16558,7 +16583,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="1270" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1270" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1270" s="1" t="s">
         <v>1267</v>
       </c>
@@ -16566,7 +16591,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="1271" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+    <row r="1271" spans="1:10" ht="360" x14ac:dyDescent="0.25">
       <c r="A1271" s="1" t="s">
         <v>1268</v>
       </c>
@@ -16595,7 +16620,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="1272" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1272" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1272" s="1" t="s">
         <v>1269</v>
       </c>
@@ -16615,7 +16640,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="1273" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+    <row r="1273" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A1273" s="1" t="s">
         <v>1270</v>
       </c>
@@ -16641,15 +16666,39 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="1274" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="1274" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A1274" s="1" t="s">
         <v>1271</v>
       </c>
       <c r="B1274" s="1" t="s">
         <v>1862</v>
       </c>
-    </row>
-    <row r="1275" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="C1274" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D1274" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E1274" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F1274" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="G1274" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="H1274" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="I1274" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="J1274" s="1" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A1275" s="1" t="s">
         <v>1272</v>
       </c>
@@ -16657,7 +16706,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="1276" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1276" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1276" s="1" t="s">
         <v>1273</v>
       </c>
@@ -16665,7 +16714,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="1277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1277" s="1" t="s">
         <v>1274</v>
       </c>
@@ -16673,7 +16722,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="1278" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="1278" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A1278" s="1" t="s">
         <v>1275</v>
       </c>
@@ -16681,7 +16730,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="1279" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="1279" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A1279" s="1" t="s">
         <v>1276</v>
       </c>
@@ -16689,7 +16738,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="1280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1280" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1280" s="1" t="s">
         <v>1277</v>
       </c>
@@ -20362,7 +20411,7 @@
   </sheetData>
   <autoFilter ref="A2:F1729" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A1:D1724 A1730:D1048576 C1725:D1729 E1271:I1271 E1272:F1273 G1273:H1273">
+  <conditionalFormatting sqref="A1:D1724 A1730:D1048576 C1725:D1729 E1271:I1271 E1272:F1274 G1273:H1274 I1274:J1274">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1725:B1729">
